--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\afent\Documents\CEID\4o Έτος\8ο Εξάμηνο\Τεχνολογία Λογισμικού\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567F9F4E-0CD1-4B7B-8240-41EB8FA73F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC414A1-577F-4484-8FC7-382498F11E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
     <sheet name="Tasks" sheetId="13" r:id="rId2"/>
     <sheet name="ΔΥΝΑΜΙΚΟ" sheetId="18" r:id="rId3"/>
-    <sheet name="Φύλλο1" sheetId="14" r:id="rId4"/>
-    <sheet name="About" sheetId="12" r:id="rId5"/>
+    <sheet name="MONEY" sheetId="20" r:id="rId4"/>
+    <sheet name="Φύλλο1" sheetId="14" r:id="rId5"/>
+    <sheet name="About" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$54</definedName>
@@ -80,17 +81,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="128">
   <si>
     <t>Project Start:</t>
   </si>
   <si>
-    <t>[Project Lead]</t>
-  </si>
-  <si>
-    <t>[Company Name]</t>
-  </si>
-  <si>
     <t>Project Management Templates</t>
   </si>
   <si>
@@ -175,9 +170,6 @@
     <t>Discord Server</t>
   </si>
   <si>
-    <t>UniNode</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
@@ -395,6 +387,84 @@
   </si>
   <si>
     <t>25 26</t>
+  </si>
+  <si>
+    <t>ΤΥ1</t>
+  </si>
+  <si>
+    <t>ΤΥ2</t>
+  </si>
+  <si>
+    <t>ΤΥ3</t>
+  </si>
+  <si>
+    <t>ΤΥ4</t>
+  </si>
+  <si>
+    <t>ΤΥ5</t>
+  </si>
+  <si>
+    <t>ΤΥ6</t>
+  </si>
+  <si>
+    <t>ΤΥ9</t>
+  </si>
+  <si>
+    <t>ΤΥ8</t>
+  </si>
+  <si>
+    <t>ΤΥ7</t>
+  </si>
+  <si>
+    <t>ΤΥ10</t>
+  </si>
+  <si>
+    <t>TY11</t>
+  </si>
+  <si>
+    <t>TY12</t>
+  </si>
+  <si>
+    <t>TY1</t>
+  </si>
+  <si>
+    <t>TY2</t>
+  </si>
+  <si>
+    <t>TY3</t>
+  </si>
+  <si>
+    <t>TY4</t>
+  </si>
+  <si>
+    <t>TY5</t>
+  </si>
+  <si>
+    <t>TY6</t>
+  </si>
+  <si>
+    <t>TY7</t>
+  </si>
+  <si>
+    <t>TY8</t>
+  </si>
+  <si>
+    <t>TY9</t>
+  </si>
+  <si>
+    <t>TY10</t>
+  </si>
+  <si>
+    <t>ΗΜΕΡΕΣ</t>
+  </si>
+  <si>
+    <t>ΜΙΣΘΟΣ</t>
+  </si>
+  <si>
+    <t>ΚΟΣΤΟΣ</t>
+  </si>
+  <si>
+    <t>ΣΥΝΟΛΙΚΟ ΚΟΣΤΟΣ</t>
   </si>
 </sst>
 </file>
@@ -646,7 +716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,8 +813,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -922,6 +1010,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -931,7 +1083,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1296,26 +1448,93 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1323,487 +1542,7 @@
     <cellStyle name="Ποσοστό" xfId="2" builtinId="5"/>
     <cellStyle name="Υπερ-σύνδεση" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <border>
         <left style="thin">
@@ -1930,15 +1669,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="59"/>
-      <tableStyleElement type="headerRow" dxfId="58"/>
-      <tableStyleElement type="totalRow" dxfId="57"/>
-      <tableStyleElement type="firstColumn" dxfId="56"/>
-      <tableStyleElement type="lastColumn" dxfId="55"/>
-      <tableStyleElement type="firstRowStripe" dxfId="54"/>
-      <tableStyleElement type="secondRowStripe" dxfId="53"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="52"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="51"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2096,10 +1835,477 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>218015</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Εικόνα 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E723BC2-3968-4936-8B1F-9E7B14438145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="74083" y="179917"/>
+          <a:ext cx="1466849" cy="522904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>137582</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>2456</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>183356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Ρόμβος 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27FFF9E-6F93-45C3-B253-03C55ED717ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11779249" y="10593917"/>
+          <a:ext cx="277624" cy="183356"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>67732</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>144273</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ρόμβος 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56F9D11-85D1-47E5-917C-A0075284CA1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15275982" y="12333817"/>
+          <a:ext cx="277624" cy="183356"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>127340</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Ρόμβος 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99983471-C68D-4166-A24D-23A5B95635F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21725466" y="15163800"/>
+          <a:ext cx="277624" cy="183356"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>129116</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>131574</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>196056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Ρόμβος 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B50FF59-36D2-467A-AD5A-D040BA46F190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22756283" y="16670867"/>
+          <a:ext cx="277624" cy="183356"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1485899</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>75229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Εικόνα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7A078E-019A-4328-B62A-E1D8F3CE5ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="152400"/>
+          <a:ext cx="1466849" cy="522904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1476374</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>18079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Εικόνα 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942B0842-EC27-4A46-BD45-EB68ECD5A849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="0"/>
+          <a:ext cx="1466849" cy="522904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1466849</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>37129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Εικόνα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBC5489-F338-45DF-8348-725586C23CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19050"/>
+          <a:ext cx="1466849" cy="522904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2421,11 +2627,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL58"/>
+  <dimension ref="A1:DB58"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="DG4" sqref="DG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,14 +2644,17 @@
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="9" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="39" width="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="48" width="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="69" width="3" bestFit="1" customWidth="1"/>
+    <col min="70" max="78" width="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="100" width="3" bestFit="1" customWidth="1"/>
+    <col min="101" max="106" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="62" t="s">
-        <v>31</v>
-      </c>
+    <row r="1" spans="1:106" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="62"/>
       <c r="B1" s="99"/>
       <c r="C1" s="78"/>
       <c r="D1" s="1"/>
@@ -2453,138 +2662,194 @@
       <c r="F1" s="58"/>
       <c r="H1" s="1"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-    </row>
-    <row r="2" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
-        <v>2</v>
-      </c>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+    </row>
+    <row r="2" spans="1:106" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63"/>
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="128">
+      <c r="E2" s="125">
         <v>44256</v>
       </c>
-      <c r="F2" s="129"/>
-    </row>
-    <row r="3" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
-        <v>1</v>
-      </c>
+      <c r="F2" s="126"/>
+    </row>
+    <row r="3" spans="1:106" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63"/>
       <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="128">
+        <v>17</v>
+      </c>
+      <c r="E3" s="125">
         <v>44274</v>
       </c>
-      <c r="F3" s="129"/>
-    </row>
-    <row r="4" spans="1:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="126"/>
+    </row>
+    <row r="4" spans="1:106" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="125">
+      <c r="I4" s="127">
         <f>I5</f>
         <v>44256</v>
       </c>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="125">
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="127">
         <f>P5</f>
         <v>44263</v>
       </c>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="125">
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="127">
         <f>W5</f>
         <v>44270</v>
       </c>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="125">
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127">
         <f>AD5</f>
         <v>44277</v>
       </c>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="127"/>
-      <c r="AK4" s="125">
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="127">
         <f>AK5</f>
         <v>44284</v>
       </c>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="127"/>
-      <c r="AR4" s="125">
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="127">
         <f>AR5</f>
         <v>44291</v>
       </c>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="126"/>
-      <c r="AX4" s="127"/>
-      <c r="AY4" s="125">
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="128"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="128"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="127">
         <f>AY5</f>
         <v>44298</v>
       </c>
-      <c r="AZ4" s="126"/>
-      <c r="BA4" s="126"/>
-      <c r="BB4" s="126"/>
-      <c r="BC4" s="126"/>
-      <c r="BD4" s="126"/>
-      <c r="BE4" s="127"/>
-      <c r="BF4" s="125">
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="128"/>
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="129"/>
+      <c r="BF4" s="127">
         <f>BF5</f>
         <v>44305</v>
       </c>
-      <c r="BG4" s="126"/>
-      <c r="BH4" s="126"/>
-      <c r="BI4" s="126"/>
-      <c r="BJ4" s="126"/>
-      <c r="BK4" s="126"/>
-      <c r="BL4" s="127"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="128"/>
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="129"/>
+      <c r="BM4" s="127">
+        <f>BM5</f>
+        <v>44312</v>
+      </c>
+      <c r="BN4" s="128"/>
+      <c r="BO4" s="128"/>
+      <c r="BP4" s="128"/>
+      <c r="BQ4" s="128"/>
+      <c r="BR4" s="128"/>
+      <c r="BS4" s="129"/>
+      <c r="BT4" s="127">
+        <f>BT5</f>
+        <v>44319</v>
+      </c>
+      <c r="BU4" s="128"/>
+      <c r="BV4" s="128"/>
+      <c r="BW4" s="128"/>
+      <c r="BX4" s="128"/>
+      <c r="BY4" s="128"/>
+      <c r="BZ4" s="129"/>
+      <c r="CA4" s="127">
+        <f>CA5</f>
+        <v>44326</v>
+      </c>
+      <c r="CB4" s="128"/>
+      <c r="CC4" s="128"/>
+      <c r="CD4" s="128"/>
+      <c r="CE4" s="128"/>
+      <c r="CF4" s="128"/>
+      <c r="CG4" s="129"/>
+      <c r="CH4" s="127">
+        <f>CH5</f>
+        <v>44333</v>
+      </c>
+      <c r="CI4" s="128"/>
+      <c r="CJ4" s="128"/>
+      <c r="CK4" s="128"/>
+      <c r="CL4" s="128"/>
+      <c r="CM4" s="128"/>
+      <c r="CN4" s="129"/>
+      <c r="CO4" s="127">
+        <f t="shared" ref="CO4" si="0">CO5</f>
+        <v>44340</v>
+      </c>
+      <c r="CP4" s="128"/>
+      <c r="CQ4" s="128"/>
+      <c r="CR4" s="128"/>
+      <c r="CS4" s="128"/>
+      <c r="CT4" s="128"/>
+      <c r="CU4" s="129"/>
+      <c r="CV4" s="127">
+        <f t="shared" ref="CV4" si="1">CV5</f>
+        <v>44347</v>
+      </c>
+      <c r="CW4" s="128"/>
+      <c r="CX4" s="128"/>
+      <c r="CY4" s="128"/>
+      <c r="CZ4" s="128"/>
+      <c r="DA4" s="128"/>
+      <c r="DB4" s="129"/>
+    </row>
+    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
       <c r="G5" s="5"/>
       <c r="I5" s="10">
         <f>E2-WEEKDAY(E2,1)+2+7*(E4-1)</f>
@@ -2595,23 +2860,23 @@
         <v>44257</v>
       </c>
       <c r="K5" s="9">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <f t="shared" ref="K5:AX5" si="2">J5+1</f>
         <v>44258</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44259</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44260</v>
       </c>
       <c r="N5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44261</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44262</v>
       </c>
       <c r="P5" s="10">
@@ -2623,23 +2888,23 @@
         <v>44264</v>
       </c>
       <c r="R5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44265</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44266</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44267</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44268</v>
       </c>
       <c r="V5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44269</v>
       </c>
       <c r="W5" s="10">
@@ -2651,23 +2916,23 @@
         <v>44271</v>
       </c>
       <c r="Y5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44272</v>
       </c>
       <c r="Z5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44273</v>
       </c>
       <c r="AA5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44274</v>
       </c>
       <c r="AB5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44275</v>
       </c>
       <c r="AC5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44276</v>
       </c>
       <c r="AD5" s="10">
@@ -2679,23 +2944,23 @@
         <v>44278</v>
       </c>
       <c r="AF5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44279</v>
       </c>
       <c r="AG5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44280</v>
       </c>
       <c r="AH5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44281</v>
       </c>
       <c r="AI5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44282</v>
       </c>
       <c r="AJ5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44283</v>
       </c>
       <c r="AK5" s="10">
@@ -2707,23 +2972,23 @@
         <v>44285</v>
       </c>
       <c r="AM5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44286</v>
       </c>
       <c r="AN5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44287</v>
       </c>
       <c r="AO5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44288</v>
       </c>
       <c r="AP5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44289</v>
       </c>
       <c r="AQ5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44290</v>
       </c>
       <c r="AR5" s="10">
@@ -2735,23 +3000,23 @@
         <v>44292</v>
       </c>
       <c r="AT5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44293</v>
       </c>
       <c r="AU5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44294</v>
       </c>
       <c r="AV5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44295</v>
       </c>
       <c r="AW5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44296</v>
       </c>
       <c r="AX5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44297</v>
       </c>
       <c r="AY5" s="10">
@@ -2763,23 +3028,23 @@
         <v>44299</v>
       </c>
       <c r="BA5" s="9">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+        <f t="shared" ref="BA5:BE5" si="3">AZ5+1</f>
         <v>44300</v>
       </c>
       <c r="BB5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44301</v>
       </c>
       <c r="BC5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44302</v>
       </c>
       <c r="BD5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44303</v>
       </c>
       <c r="BE5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44304</v>
       </c>
       <c r="BF5" s="10">
@@ -2791,277 +3056,613 @@
         <v>44306</v>
       </c>
       <c r="BH5" s="9">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+        <f t="shared" ref="BH5:BL5" si="4">BG5+1</f>
         <v>44307</v>
       </c>
       <c r="BI5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44308</v>
       </c>
       <c r="BJ5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44309</v>
       </c>
       <c r="BK5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44310</v>
       </c>
       <c r="BL5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44311</v>
       </c>
-    </row>
-    <row r="6" spans="1:64" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM5" s="10">
+        <f>BL5+1</f>
+        <v>44312</v>
+      </c>
+      <c r="BN5" s="9">
+        <f>BM5+1</f>
+        <v>44313</v>
+      </c>
+      <c r="BO5" s="9">
+        <f t="shared" ref="BO5" si="5">BN5+1</f>
+        <v>44314</v>
+      </c>
+      <c r="BP5" s="9">
+        <f t="shared" ref="BP5" si="6">BO5+1</f>
+        <v>44315</v>
+      </c>
+      <c r="BQ5" s="9">
+        <f t="shared" ref="BQ5" si="7">BP5+1</f>
+        <v>44316</v>
+      </c>
+      <c r="BR5" s="9">
+        <f t="shared" ref="BR5" si="8">BQ5+1</f>
+        <v>44317</v>
+      </c>
+      <c r="BS5" s="11">
+        <f t="shared" ref="BS5" si="9">BR5+1</f>
+        <v>44318</v>
+      </c>
+      <c r="BT5" s="10">
+        <f>BS5+1</f>
+        <v>44319</v>
+      </c>
+      <c r="BU5" s="9">
+        <f>BT5+1</f>
+        <v>44320</v>
+      </c>
+      <c r="BV5" s="9">
+        <f t="shared" ref="BV5" si="10">BU5+1</f>
+        <v>44321</v>
+      </c>
+      <c r="BW5" s="9">
+        <f t="shared" ref="BW5" si="11">BV5+1</f>
+        <v>44322</v>
+      </c>
+      <c r="BX5" s="9">
+        <f t="shared" ref="BX5" si="12">BW5+1</f>
+        <v>44323</v>
+      </c>
+      <c r="BY5" s="9">
+        <f t="shared" ref="BY5" si="13">BX5+1</f>
+        <v>44324</v>
+      </c>
+      <c r="BZ5" s="11">
+        <f t="shared" ref="BZ5" si="14">BY5+1</f>
+        <v>44325</v>
+      </c>
+      <c r="CA5" s="10">
+        <f>BZ5+1</f>
+        <v>44326</v>
+      </c>
+      <c r="CB5" s="9">
+        <f>CA5+1</f>
+        <v>44327</v>
+      </c>
+      <c r="CC5" s="9">
+        <f t="shared" ref="CC5" si="15">CB5+1</f>
+        <v>44328</v>
+      </c>
+      <c r="CD5" s="9">
+        <f t="shared" ref="CD5" si="16">CC5+1</f>
+        <v>44329</v>
+      </c>
+      <c r="CE5" s="9">
+        <f t="shared" ref="CE5" si="17">CD5+1</f>
+        <v>44330</v>
+      </c>
+      <c r="CF5" s="9">
+        <f t="shared" ref="CF5" si="18">CE5+1</f>
+        <v>44331</v>
+      </c>
+      <c r="CG5" s="11">
+        <f t="shared" ref="CG5" si="19">CF5+1</f>
+        <v>44332</v>
+      </c>
+      <c r="CH5" s="10">
+        <f>CG5+1</f>
+        <v>44333</v>
+      </c>
+      <c r="CI5" s="9">
+        <f>CH5+1</f>
+        <v>44334</v>
+      </c>
+      <c r="CJ5" s="9">
+        <f t="shared" ref="CJ5" si="20">CI5+1</f>
+        <v>44335</v>
+      </c>
+      <c r="CK5" s="9">
+        <f t="shared" ref="CK5" si="21">CJ5+1</f>
+        <v>44336</v>
+      </c>
+      <c r="CL5" s="9">
+        <f t="shared" ref="CL5" si="22">CK5+1</f>
+        <v>44337</v>
+      </c>
+      <c r="CM5" s="9">
+        <f t="shared" ref="CM5" si="23">CL5+1</f>
+        <v>44338</v>
+      </c>
+      <c r="CN5" s="11">
+        <f t="shared" ref="CN5:CP5" si="24">CM5+1</f>
+        <v>44339</v>
+      </c>
+      <c r="CO5" s="10">
+        <f t="shared" si="24"/>
+        <v>44340</v>
+      </c>
+      <c r="CP5" s="9">
+        <f t="shared" si="24"/>
+        <v>44341</v>
+      </c>
+      <c r="CQ5" s="9">
+        <f t="shared" ref="CQ5" si="25">CP5+1</f>
+        <v>44342</v>
+      </c>
+      <c r="CR5" s="9">
+        <f t="shared" ref="CR5" si="26">CQ5+1</f>
+        <v>44343</v>
+      </c>
+      <c r="CS5" s="9">
+        <f t="shared" ref="CS5" si="27">CR5+1</f>
+        <v>44344</v>
+      </c>
+      <c r="CT5" s="9">
+        <f t="shared" ref="CT5" si="28">CS5+1</f>
+        <v>44345</v>
+      </c>
+      <c r="CU5" s="11">
+        <f t="shared" ref="CU5:CW5" si="29">CT5+1</f>
+        <v>44346</v>
+      </c>
+      <c r="CV5" s="10">
+        <f t="shared" si="29"/>
+        <v>44347</v>
+      </c>
+      <c r="CW5" s="9">
+        <f t="shared" si="29"/>
+        <v>44348</v>
+      </c>
+      <c r="CX5" s="9">
+        <f t="shared" ref="CX5" si="30">CW5+1</f>
+        <v>44349</v>
+      </c>
+      <c r="CY5" s="9">
+        <f t="shared" ref="CY5" si="31">CX5+1</f>
+        <v>44350</v>
+      </c>
+      <c r="CZ5" s="9">
+        <f t="shared" ref="CZ5" si="32">CY5+1</f>
+        <v>44351</v>
+      </c>
+      <c r="DA5" s="9">
+        <f t="shared" ref="DA5" si="33">CZ5+1</f>
+        <v>44352</v>
+      </c>
+      <c r="DB5" s="11">
+        <f t="shared" ref="DB5" si="34">DA5+1</f>
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:106" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="12" t="str">
         <f>LEFT(TEXT(I5,"ηηη"),1)</f>
         <v>Δ</v>
       </c>
       <c r="J6" s="12" t="str">
-        <f t="shared" ref="J6:BL6" si="3">LEFT(TEXT(J5,"ηηη"),1)</f>
+        <f t="shared" ref="J6:BL6" si="35">LEFT(TEXT(J5,"ηηη"),1)</f>
         <v>Τ</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="M6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="N6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Σ</v>
       </c>
       <c r="O6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Κ</v>
       </c>
       <c r="P6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Δ</v>
       </c>
       <c r="Q6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="R6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="S6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="T6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="U6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Σ</v>
       </c>
       <c r="V6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Κ</v>
       </c>
       <c r="W6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Δ</v>
       </c>
       <c r="X6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="Y6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="Z6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="AA6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="AB6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Σ</v>
       </c>
       <c r="AC6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Κ</v>
       </c>
       <c r="AD6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Δ</v>
       </c>
       <c r="AE6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="AF6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="AG6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="AH6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="AI6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Σ</v>
       </c>
       <c r="AJ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Κ</v>
       </c>
       <c r="AK6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Δ</v>
       </c>
       <c r="AL6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="AM6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="AN6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="AO6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="AP6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Σ</v>
       </c>
       <c r="AQ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Κ</v>
       </c>
       <c r="AR6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Δ</v>
       </c>
       <c r="AS6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="AT6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="AU6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="AV6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="AW6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Σ</v>
       </c>
       <c r="AX6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Κ</v>
       </c>
       <c r="AY6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Δ</v>
       </c>
       <c r="AZ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="BA6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="BB6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="BC6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="BD6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Σ</v>
       </c>
       <c r="BE6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Κ</v>
       </c>
       <c r="BF6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Δ</v>
       </c>
       <c r="BG6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="BH6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Τ</v>
       </c>
       <c r="BI6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="BJ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Π</v>
       </c>
       <c r="BK6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Σ</v>
       </c>
       <c r="BL6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>Κ</v>
       </c>
-    </row>
-    <row r="7" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM6" s="12" t="str">
+        <f t="shared" ref="BM6:CN6" si="36">LEFT(TEXT(BM5,"ηηη"),1)</f>
+        <v>Δ</v>
+      </c>
+      <c r="BN6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Τ</v>
+      </c>
+      <c r="BO6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Τ</v>
+      </c>
+      <c r="BP6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Π</v>
+      </c>
+      <c r="BQ6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Π</v>
+      </c>
+      <c r="BR6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Σ</v>
+      </c>
+      <c r="BS6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Κ</v>
+      </c>
+      <c r="BT6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Δ</v>
+      </c>
+      <c r="BU6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Τ</v>
+      </c>
+      <c r="BV6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Τ</v>
+      </c>
+      <c r="BW6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Π</v>
+      </c>
+      <c r="BX6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Π</v>
+      </c>
+      <c r="BY6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Σ</v>
+      </c>
+      <c r="BZ6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Κ</v>
+      </c>
+      <c r="CA6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Δ</v>
+      </c>
+      <c r="CB6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Τ</v>
+      </c>
+      <c r="CC6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Τ</v>
+      </c>
+      <c r="CD6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Π</v>
+      </c>
+      <c r="CE6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Π</v>
+      </c>
+      <c r="CF6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Σ</v>
+      </c>
+      <c r="CG6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Κ</v>
+      </c>
+      <c r="CH6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Δ</v>
+      </c>
+      <c r="CI6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Τ</v>
+      </c>
+      <c r="CJ6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Τ</v>
+      </c>
+      <c r="CK6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Π</v>
+      </c>
+      <c r="CL6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Π</v>
+      </c>
+      <c r="CM6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Σ</v>
+      </c>
+      <c r="CN6" s="12" t="str">
+        <f t="shared" si="36"/>
+        <v>Κ</v>
+      </c>
+      <c r="CO6" s="12" t="str">
+        <f t="shared" ref="CO6:DB6" si="37">LEFT(TEXT(CO5,"ηηη"),1)</f>
+        <v>Δ</v>
+      </c>
+      <c r="CP6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Τ</v>
+      </c>
+      <c r="CQ6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Τ</v>
+      </c>
+      <c r="CR6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Π</v>
+      </c>
+      <c r="CS6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Π</v>
+      </c>
+      <c r="CT6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Σ</v>
+      </c>
+      <c r="CU6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Κ</v>
+      </c>
+      <c r="CV6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Δ</v>
+      </c>
+      <c r="CW6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Τ</v>
+      </c>
+      <c r="CX6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Τ</v>
+      </c>
+      <c r="CY6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Π</v>
+      </c>
+      <c r="CZ6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Π</v>
+      </c>
+      <c r="DA6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Σ</v>
+      </c>
+      <c r="DB6" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>Κ</v>
+      </c>
+    </row>
+    <row r="7" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
@@ -3070,7 +3671,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="str">
-        <f t="shared" ref="H7:H56" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H7:H56" si="38">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="44"/>
@@ -3129,14 +3730,56 @@
       <c r="BJ7" s="44"/>
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
-    </row>
-    <row r="8" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM7" s="44"/>
+      <c r="BN7" s="44"/>
+      <c r="BO7" s="44"/>
+      <c r="BP7" s="44"/>
+      <c r="BQ7" s="44"/>
+      <c r="BR7" s="44"/>
+      <c r="BS7" s="44"/>
+      <c r="BT7" s="44"/>
+      <c r="BU7" s="44"/>
+      <c r="BV7" s="44"/>
+      <c r="BW7" s="44"/>
+      <c r="BX7" s="44"/>
+      <c r="BY7" s="44"/>
+      <c r="BZ7" s="44"/>
+      <c r="CA7" s="44"/>
+      <c r="CB7" s="44"/>
+      <c r="CC7" s="44"/>
+      <c r="CD7" s="44"/>
+      <c r="CE7" s="44"/>
+      <c r="CF7" s="44"/>
+      <c r="CG7" s="44"/>
+      <c r="CH7" s="44"/>
+      <c r="CI7" s="44"/>
+      <c r="CJ7" s="44"/>
+      <c r="CK7" s="44"/>
+      <c r="CL7" s="44"/>
+      <c r="CM7" s="44"/>
+      <c r="CN7" s="44"/>
+      <c r="CO7" s="44"/>
+      <c r="CP7" s="44"/>
+      <c r="CQ7" s="44"/>
+      <c r="CR7" s="44"/>
+      <c r="CS7" s="44"/>
+      <c r="CT7" s="44"/>
+      <c r="CU7" s="44"/>
+      <c r="CV7" s="44"/>
+      <c r="CW7" s="44"/>
+      <c r="CX7" s="44"/>
+      <c r="CY7" s="44"/>
+      <c r="CZ7" s="44"/>
+      <c r="DA7" s="44"/>
+      <c r="DB7" s="44"/>
+    </row>
+    <row r="8" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" s="102"/>
       <c r="C8" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
@@ -3205,16 +3848,58 @@
       <c r="BJ8" s="44"/>
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
-    </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM8" s="44"/>
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="44"/>
+      <c r="BP8" s="44"/>
+      <c r="BQ8" s="44"/>
+      <c r="BR8" s="44"/>
+      <c r="BS8" s="44"/>
+      <c r="BT8" s="44"/>
+      <c r="BU8" s="44"/>
+      <c r="BV8" s="44"/>
+      <c r="BW8" s="44"/>
+      <c r="BX8" s="44"/>
+      <c r="BY8" s="44"/>
+      <c r="BZ8" s="44"/>
+      <c r="CA8" s="44"/>
+      <c r="CB8" s="44"/>
+      <c r="CC8" s="44"/>
+      <c r="CD8" s="44"/>
+      <c r="CE8" s="44"/>
+      <c r="CF8" s="44"/>
+      <c r="CG8" s="44"/>
+      <c r="CH8" s="44"/>
+      <c r="CI8" s="44"/>
+      <c r="CJ8" s="44"/>
+      <c r="CK8" s="44"/>
+      <c r="CL8" s="44"/>
+      <c r="CM8" s="44"/>
+      <c r="CN8" s="44"/>
+      <c r="CO8" s="44"/>
+      <c r="CP8" s="44"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="44"/>
+      <c r="CS8" s="44"/>
+      <c r="CT8" s="44"/>
+      <c r="CU8" s="44"/>
+      <c r="CV8" s="44"/>
+      <c r="CW8" s="44"/>
+      <c r="CX8" s="44"/>
+      <c r="CY8" s="44"/>
+      <c r="CZ8" s="44"/>
+      <c r="DA8" s="44"/>
+      <c r="DB8" s="44"/>
+    </row>
+    <row r="9" spans="1:106" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -3227,7 +3912,7 @@
       </c>
       <c r="G9" s="113"/>
       <c r="H9" s="113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I9" s="114"/>
@@ -3286,14 +3971,56 @@
       <c r="BJ9" s="114"/>
       <c r="BK9" s="114"/>
       <c r="BL9" s="114"/>
-    </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM9" s="114"/>
+      <c r="BN9" s="114"/>
+      <c r="BO9" s="114"/>
+      <c r="BP9" s="114"/>
+      <c r="BQ9" s="114"/>
+      <c r="BR9" s="114"/>
+      <c r="BS9" s="114"/>
+      <c r="BT9" s="114"/>
+      <c r="BU9" s="114"/>
+      <c r="BV9" s="114"/>
+      <c r="BW9" s="114"/>
+      <c r="BX9" s="114"/>
+      <c r="BY9" s="114"/>
+      <c r="BZ9" s="114"/>
+      <c r="CA9" s="114"/>
+      <c r="CB9" s="114"/>
+      <c r="CC9" s="114"/>
+      <c r="CD9" s="114"/>
+      <c r="CE9" s="114"/>
+      <c r="CF9" s="114"/>
+      <c r="CG9" s="114"/>
+      <c r="CH9" s="114"/>
+      <c r="CI9" s="114"/>
+      <c r="CJ9" s="114"/>
+      <c r="CK9" s="114"/>
+      <c r="CL9" s="114"/>
+      <c r="CM9" s="114"/>
+      <c r="CN9" s="114"/>
+      <c r="CO9" s="114"/>
+      <c r="CP9" s="114"/>
+      <c r="CQ9" s="114"/>
+      <c r="CR9" s="114"/>
+      <c r="CS9" s="114"/>
+      <c r="CT9" s="114"/>
+      <c r="CU9" s="114"/>
+      <c r="CV9" s="114"/>
+      <c r="CW9" s="114"/>
+      <c r="CX9" s="114"/>
+      <c r="CY9" s="114"/>
+      <c r="CZ9" s="114"/>
+      <c r="DA9" s="114"/>
+      <c r="DB9" s="114"/>
+    </row>
+    <row r="10" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="102"/>
       <c r="C10" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -3306,7 +4033,7 @@
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="I10" s="44"/>
@@ -3365,14 +4092,56 @@
       <c r="BJ10" s="44"/>
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
-    </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM10" s="44"/>
+      <c r="BN10" s="44"/>
+      <c r="BO10" s="44"/>
+      <c r="BP10" s="44"/>
+      <c r="BQ10" s="44"/>
+      <c r="BR10" s="44"/>
+      <c r="BS10" s="44"/>
+      <c r="BT10" s="44"/>
+      <c r="BU10" s="44"/>
+      <c r="BV10" s="44"/>
+      <c r="BW10" s="44"/>
+      <c r="BX10" s="44"/>
+      <c r="BY10" s="44"/>
+      <c r="BZ10" s="44"/>
+      <c r="CA10" s="44"/>
+      <c r="CB10" s="44"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="44"/>
+      <c r="CE10" s="44"/>
+      <c r="CF10" s="44"/>
+      <c r="CG10" s="44"/>
+      <c r="CH10" s="44"/>
+      <c r="CI10" s="44"/>
+      <c r="CJ10" s="44"/>
+      <c r="CK10" s="44"/>
+      <c r="CL10" s="44"/>
+      <c r="CM10" s="44"/>
+      <c r="CN10" s="44"/>
+      <c r="CO10" s="44"/>
+      <c r="CP10" s="44"/>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="44"/>
+      <c r="CS10" s="44"/>
+      <c r="CT10" s="44"/>
+      <c r="CU10" s="44"/>
+      <c r="CV10" s="44"/>
+      <c r="CW10" s="44"/>
+      <c r="CX10" s="44"/>
+      <c r="CY10" s="44"/>
+      <c r="CZ10" s="44"/>
+      <c r="DA10" s="44"/>
+      <c r="DB10" s="44"/>
+    </row>
+    <row r="11" spans="1:106" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="102"/>
       <c r="C11" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="17">
         <v>0.5</v>
@@ -3385,7 +4154,7 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="I11" s="44"/>
@@ -3444,14 +4213,56 @@
       <c r="BJ11" s="44"/>
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
-    </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM11" s="44"/>
+      <c r="BN11" s="44"/>
+      <c r="BO11" s="44"/>
+      <c r="BP11" s="44"/>
+      <c r="BQ11" s="44"/>
+      <c r="BR11" s="44"/>
+      <c r="BS11" s="44"/>
+      <c r="BT11" s="44"/>
+      <c r="BU11" s="44"/>
+      <c r="BV11" s="44"/>
+      <c r="BW11" s="44"/>
+      <c r="BX11" s="44"/>
+      <c r="BY11" s="44"/>
+      <c r="BZ11" s="44"/>
+      <c r="CA11" s="44"/>
+      <c r="CB11" s="44"/>
+      <c r="CC11" s="44"/>
+      <c r="CD11" s="44"/>
+      <c r="CE11" s="44"/>
+      <c r="CF11" s="44"/>
+      <c r="CG11" s="44"/>
+      <c r="CH11" s="44"/>
+      <c r="CI11" s="44"/>
+      <c r="CJ11" s="44"/>
+      <c r="CK11" s="44"/>
+      <c r="CL11" s="44"/>
+      <c r="CM11" s="44"/>
+      <c r="CN11" s="44"/>
+      <c r="CO11" s="44"/>
+      <c r="CP11" s="44"/>
+      <c r="CQ11" s="44"/>
+      <c r="CR11" s="44"/>
+      <c r="CS11" s="44"/>
+      <c r="CT11" s="44"/>
+      <c r="CU11" s="44"/>
+      <c r="CV11" s="44"/>
+      <c r="CW11" s="44"/>
+      <c r="CX11" s="44"/>
+      <c r="CY11" s="44"/>
+      <c r="CZ11" s="44"/>
+      <c r="DA11" s="44"/>
+      <c r="DB11" s="44"/>
+    </row>
+    <row r="12" spans="1:106" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="102"/>
       <c r="C12" s="61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -3520,16 +4331,58 @@
       <c r="BJ12" s="44"/>
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
-    </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM12" s="44"/>
+      <c r="BN12" s="44"/>
+      <c r="BO12" s="44"/>
+      <c r="BP12" s="44"/>
+      <c r="BQ12" s="44"/>
+      <c r="BR12" s="44"/>
+      <c r="BS12" s="44"/>
+      <c r="BT12" s="44"/>
+      <c r="BU12" s="44"/>
+      <c r="BV12" s="44"/>
+      <c r="BW12" s="44"/>
+      <c r="BX12" s="44"/>
+      <c r="BY12" s="44"/>
+      <c r="BZ12" s="44"/>
+      <c r="CA12" s="44"/>
+      <c r="CB12" s="44"/>
+      <c r="CC12" s="44"/>
+      <c r="CD12" s="44"/>
+      <c r="CE12" s="44"/>
+      <c r="CF12" s="44"/>
+      <c r="CG12" s="44"/>
+      <c r="CH12" s="44"/>
+      <c r="CI12" s="44"/>
+      <c r="CJ12" s="44"/>
+      <c r="CK12" s="44"/>
+      <c r="CL12" s="44"/>
+      <c r="CM12" s="44"/>
+      <c r="CN12" s="44"/>
+      <c r="CO12" s="44"/>
+      <c r="CP12" s="44"/>
+      <c r="CQ12" s="44"/>
+      <c r="CR12" s="44"/>
+      <c r="CS12" s="44"/>
+      <c r="CT12" s="44"/>
+      <c r="CU12" s="44"/>
+      <c r="CV12" s="44"/>
+      <c r="CW12" s="44"/>
+      <c r="CX12" s="44"/>
+      <c r="CY12" s="44"/>
+      <c r="CZ12" s="44"/>
+      <c r="DA12" s="44"/>
+      <c r="DB12" s="44"/>
+    </row>
+    <row r="13" spans="1:106" s="2" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -3598,14 +4451,56 @@
       <c r="BJ13" s="114"/>
       <c r="BK13" s="114"/>
       <c r="BL13" s="114"/>
-    </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM13" s="114"/>
+      <c r="BN13" s="114"/>
+      <c r="BO13" s="114"/>
+      <c r="BP13" s="114"/>
+      <c r="BQ13" s="114"/>
+      <c r="BR13" s="114"/>
+      <c r="BS13" s="114"/>
+      <c r="BT13" s="114"/>
+      <c r="BU13" s="114"/>
+      <c r="BV13" s="114"/>
+      <c r="BW13" s="114"/>
+      <c r="BX13" s="114"/>
+      <c r="BY13" s="114"/>
+      <c r="BZ13" s="114"/>
+      <c r="CA13" s="114"/>
+      <c r="CB13" s="114"/>
+      <c r="CC13" s="114"/>
+      <c r="CD13" s="114"/>
+      <c r="CE13" s="114"/>
+      <c r="CF13" s="114"/>
+      <c r="CG13" s="114"/>
+      <c r="CH13" s="114"/>
+      <c r="CI13" s="114"/>
+      <c r="CJ13" s="114"/>
+      <c r="CK13" s="114"/>
+      <c r="CL13" s="114"/>
+      <c r="CM13" s="114"/>
+      <c r="CN13" s="114"/>
+      <c r="CO13" s="114"/>
+      <c r="CP13" s="114"/>
+      <c r="CQ13" s="114"/>
+      <c r="CR13" s="114"/>
+      <c r="CS13" s="114"/>
+      <c r="CT13" s="114"/>
+      <c r="CU13" s="114"/>
+      <c r="CV13" s="114"/>
+      <c r="CW13" s="114"/>
+      <c r="CX13" s="114"/>
+      <c r="CY13" s="114"/>
+      <c r="CZ13" s="114"/>
+      <c r="DA13" s="114"/>
+      <c r="DB13" s="114"/>
+    </row>
+    <row r="14" spans="1:106" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="102"/>
       <c r="C14" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="17">
         <v>0.75</v>
@@ -3618,7 +4513,7 @@
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="I14" s="44"/>
@@ -3677,14 +4572,56 @@
       <c r="BJ14" s="44"/>
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
-    </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM14" s="44"/>
+      <c r="BN14" s="44"/>
+      <c r="BO14" s="44"/>
+      <c r="BP14" s="44"/>
+      <c r="BQ14" s="44"/>
+      <c r="BR14" s="44"/>
+      <c r="BS14" s="44"/>
+      <c r="BT14" s="44"/>
+      <c r="BU14" s="44"/>
+      <c r="BV14" s="44"/>
+      <c r="BW14" s="44"/>
+      <c r="BX14" s="44"/>
+      <c r="BY14" s="44"/>
+      <c r="BZ14" s="44"/>
+      <c r="CA14" s="44"/>
+      <c r="CB14" s="44"/>
+      <c r="CC14" s="44"/>
+      <c r="CD14" s="44"/>
+      <c r="CE14" s="44"/>
+      <c r="CF14" s="44"/>
+      <c r="CG14" s="44"/>
+      <c r="CH14" s="44"/>
+      <c r="CI14" s="44"/>
+      <c r="CJ14" s="44"/>
+      <c r="CK14" s="44"/>
+      <c r="CL14" s="44"/>
+      <c r="CM14" s="44"/>
+      <c r="CN14" s="44"/>
+      <c r="CO14" s="44"/>
+      <c r="CP14" s="44"/>
+      <c r="CQ14" s="44"/>
+      <c r="CR14" s="44"/>
+      <c r="CS14" s="44"/>
+      <c r="CT14" s="44"/>
+      <c r="CU14" s="44"/>
+      <c r="CV14" s="44"/>
+      <c r="CW14" s="44"/>
+      <c r="CX14" s="44"/>
+      <c r="CY14" s="44"/>
+      <c r="CZ14" s="44"/>
+      <c r="DA14" s="44"/>
+      <c r="DB14" s="44"/>
+    </row>
+    <row r="15" spans="1:106" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="102"/>
       <c r="C15" s="61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
@@ -3697,7 +4634,7 @@
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I15" s="44"/>
@@ -3756,16 +4693,58 @@
       <c r="BJ15" s="44"/>
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
-    </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM15" s="44"/>
+      <c r="BN15" s="44"/>
+      <c r="BO15" s="44"/>
+      <c r="BP15" s="44"/>
+      <c r="BQ15" s="44"/>
+      <c r="BR15" s="44"/>
+      <c r="BS15" s="44"/>
+      <c r="BT15" s="44"/>
+      <c r="BU15" s="44"/>
+      <c r="BV15" s="44"/>
+      <c r="BW15" s="44"/>
+      <c r="BX15" s="44"/>
+      <c r="BY15" s="44"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="44"/>
+      <c r="CB15" s="44"/>
+      <c r="CC15" s="44"/>
+      <c r="CD15" s="44"/>
+      <c r="CE15" s="44"/>
+      <c r="CF15" s="44"/>
+      <c r="CG15" s="44"/>
+      <c r="CH15" s="44"/>
+      <c r="CI15" s="44"/>
+      <c r="CJ15" s="44"/>
+      <c r="CK15" s="44"/>
+      <c r="CL15" s="44"/>
+      <c r="CM15" s="44"/>
+      <c r="CN15" s="44"/>
+      <c r="CO15" s="44"/>
+      <c r="CP15" s="44"/>
+      <c r="CQ15" s="44"/>
+      <c r="CR15" s="44"/>
+      <c r="CS15" s="44"/>
+      <c r="CT15" s="44"/>
+      <c r="CU15" s="44"/>
+      <c r="CV15" s="44"/>
+      <c r="CW15" s="44"/>
+      <c r="CX15" s="44"/>
+      <c r="CY15" s="44"/>
+      <c r="CZ15" s="44"/>
+      <c r="DA15" s="44"/>
+      <c r="DB15" s="44"/>
+    </row>
+    <row r="16" spans="1:106" s="2" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
@@ -3834,14 +4813,56 @@
       <c r="BJ16" s="114"/>
       <c r="BK16" s="114"/>
       <c r="BL16" s="114"/>
-    </row>
-    <row r="17" spans="1:64" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM16" s="114"/>
+      <c r="BN16" s="114"/>
+      <c r="BO16" s="114"/>
+      <c r="BP16" s="114"/>
+      <c r="BQ16" s="114"/>
+      <c r="BR16" s="114"/>
+      <c r="BS16" s="114"/>
+      <c r="BT16" s="114"/>
+      <c r="BU16" s="114"/>
+      <c r="BV16" s="114"/>
+      <c r="BW16" s="114"/>
+      <c r="BX16" s="114"/>
+      <c r="BY16" s="114"/>
+      <c r="BZ16" s="114"/>
+      <c r="CA16" s="114"/>
+      <c r="CB16" s="114"/>
+      <c r="CC16" s="114"/>
+      <c r="CD16" s="114"/>
+      <c r="CE16" s="114"/>
+      <c r="CF16" s="114"/>
+      <c r="CG16" s="114"/>
+      <c r="CH16" s="114"/>
+      <c r="CI16" s="114"/>
+      <c r="CJ16" s="114"/>
+      <c r="CK16" s="114"/>
+      <c r="CL16" s="114"/>
+      <c r="CM16" s="114"/>
+      <c r="CN16" s="114"/>
+      <c r="CO16" s="114"/>
+      <c r="CP16" s="114"/>
+      <c r="CQ16" s="114"/>
+      <c r="CR16" s="114"/>
+      <c r="CS16" s="114"/>
+      <c r="CT16" s="114"/>
+      <c r="CU16" s="114"/>
+      <c r="CV16" s="114"/>
+      <c r="CW16" s="114"/>
+      <c r="CX16" s="114"/>
+      <c r="CY16" s="114"/>
+      <c r="CZ16" s="114"/>
+      <c r="DA16" s="114"/>
+      <c r="DB16" s="114"/>
+    </row>
+    <row r="17" spans="1:106" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="102"/>
       <c r="C17" s="61" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="17">
         <v>0.5</v>
@@ -3854,7 +4875,7 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="I17" s="44"/>
@@ -3913,14 +4934,56 @@
       <c r="BJ17" s="44"/>
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
-    </row>
-    <row r="18" spans="1:64" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM17" s="44"/>
+      <c r="BN17" s="44"/>
+      <c r="BO17" s="44"/>
+      <c r="BP17" s="44"/>
+      <c r="BQ17" s="44"/>
+      <c r="BR17" s="44"/>
+      <c r="BS17" s="44"/>
+      <c r="BT17" s="44"/>
+      <c r="BU17" s="44"/>
+      <c r="BV17" s="44"/>
+      <c r="BW17" s="44"/>
+      <c r="BX17" s="44"/>
+      <c r="BY17" s="44"/>
+      <c r="BZ17" s="44"/>
+      <c r="CA17" s="44"/>
+      <c r="CB17" s="44"/>
+      <c r="CC17" s="44"/>
+      <c r="CD17" s="44"/>
+      <c r="CE17" s="44"/>
+      <c r="CF17" s="44"/>
+      <c r="CG17" s="44"/>
+      <c r="CH17" s="44"/>
+      <c r="CI17" s="44"/>
+      <c r="CJ17" s="44"/>
+      <c r="CK17" s="44"/>
+      <c r="CL17" s="44"/>
+      <c r="CM17" s="44"/>
+      <c r="CN17" s="44"/>
+      <c r="CO17" s="44"/>
+      <c r="CP17" s="44"/>
+      <c r="CQ17" s="44"/>
+      <c r="CR17" s="44"/>
+      <c r="CS17" s="44"/>
+      <c r="CT17" s="44"/>
+      <c r="CU17" s="44"/>
+      <c r="CV17" s="44"/>
+      <c r="CW17" s="44"/>
+      <c r="CX17" s="44"/>
+      <c r="CY17" s="44"/>
+      <c r="CZ17" s="44"/>
+      <c r="DA17" s="44"/>
+      <c r="DB17" s="44"/>
+    </row>
+    <row r="18" spans="1:106" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="102"/>
       <c r="C18" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="17">
         <v>0.75</v>
@@ -3933,7 +4996,7 @@
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="I18" s="44"/>
@@ -3992,14 +5055,56 @@
       <c r="BJ18" s="44"/>
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
-    </row>
-    <row r="19" spans="1:64" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM18" s="44"/>
+      <c r="BN18" s="44"/>
+      <c r="BO18" s="44"/>
+      <c r="BP18" s="44"/>
+      <c r="BQ18" s="44"/>
+      <c r="BR18" s="44"/>
+      <c r="BS18" s="44"/>
+      <c r="BT18" s="44"/>
+      <c r="BU18" s="44"/>
+      <c r="BV18" s="44"/>
+      <c r="BW18" s="44"/>
+      <c r="BX18" s="44"/>
+      <c r="BY18" s="44"/>
+      <c r="BZ18" s="44"/>
+      <c r="CA18" s="44"/>
+      <c r="CB18" s="44"/>
+      <c r="CC18" s="44"/>
+      <c r="CD18" s="44"/>
+      <c r="CE18" s="44"/>
+      <c r="CF18" s="44"/>
+      <c r="CG18" s="44"/>
+      <c r="CH18" s="44"/>
+      <c r="CI18" s="44"/>
+      <c r="CJ18" s="44"/>
+      <c r="CK18" s="44"/>
+      <c r="CL18" s="44"/>
+      <c r="CM18" s="44"/>
+      <c r="CN18" s="44"/>
+      <c r="CO18" s="44"/>
+      <c r="CP18" s="44"/>
+      <c r="CQ18" s="44"/>
+      <c r="CR18" s="44"/>
+      <c r="CS18" s="44"/>
+      <c r="CT18" s="44"/>
+      <c r="CU18" s="44"/>
+      <c r="CV18" s="44"/>
+      <c r="CW18" s="44"/>
+      <c r="CX18" s="44"/>
+      <c r="CY18" s="44"/>
+      <c r="CZ18" s="44"/>
+      <c r="DA18" s="44"/>
+      <c r="DB18" s="44"/>
+    </row>
+    <row r="19" spans="1:106" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="102"/>
       <c r="C19" s="61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="17">
         <v>0.5</v>
@@ -4012,7 +5117,7 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="I19" s="44"/>
@@ -4071,14 +5176,56 @@
       <c r="BJ19" s="44"/>
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
-    </row>
-    <row r="20" spans="1:64" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM19" s="44"/>
+      <c r="BN19" s="44"/>
+      <c r="BO19" s="44"/>
+      <c r="BP19" s="44"/>
+      <c r="BQ19" s="44"/>
+      <c r="BR19" s="44"/>
+      <c r="BS19" s="44"/>
+      <c r="BT19" s="44"/>
+      <c r="BU19" s="44"/>
+      <c r="BV19" s="44"/>
+      <c r="BW19" s="44"/>
+      <c r="BX19" s="44"/>
+      <c r="BY19" s="44"/>
+      <c r="BZ19" s="44"/>
+      <c r="CA19" s="44"/>
+      <c r="CB19" s="44"/>
+      <c r="CC19" s="44"/>
+      <c r="CD19" s="44"/>
+      <c r="CE19" s="44"/>
+      <c r="CF19" s="44"/>
+      <c r="CG19" s="44"/>
+      <c r="CH19" s="44"/>
+      <c r="CI19" s="44"/>
+      <c r="CJ19" s="44"/>
+      <c r="CK19" s="44"/>
+      <c r="CL19" s="44"/>
+      <c r="CM19" s="44"/>
+      <c r="CN19" s="44"/>
+      <c r="CO19" s="44"/>
+      <c r="CP19" s="44"/>
+      <c r="CQ19" s="44"/>
+      <c r="CR19" s="44"/>
+      <c r="CS19" s="44"/>
+      <c r="CT19" s="44"/>
+      <c r="CU19" s="44"/>
+      <c r="CV19" s="44"/>
+      <c r="CW19" s="44"/>
+      <c r="CX19" s="44"/>
+      <c r="CY19" s="44"/>
+      <c r="CZ19" s="44"/>
+      <c r="DA19" s="44"/>
+      <c r="DB19" s="44"/>
+    </row>
+    <row r="20" spans="1:106" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="102"/>
       <c r="C20" s="61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="17">
         <v>0.65</v>
@@ -4091,7 +5238,7 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="I20" s="44"/>
@@ -4150,16 +5297,58 @@
       <c r="BJ20" s="44"/>
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
-    </row>
-    <row r="21" spans="1:64" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM20" s="44"/>
+      <c r="BN20" s="44"/>
+      <c r="BO20" s="44"/>
+      <c r="BP20" s="44"/>
+      <c r="BQ20" s="44"/>
+      <c r="BR20" s="44"/>
+      <c r="BS20" s="44"/>
+      <c r="BT20" s="44"/>
+      <c r="BU20" s="44"/>
+      <c r="BV20" s="44"/>
+      <c r="BW20" s="44"/>
+      <c r="BX20" s="44"/>
+      <c r="BY20" s="44"/>
+      <c r="BZ20" s="44"/>
+      <c r="CA20" s="44"/>
+      <c r="CB20" s="44"/>
+      <c r="CC20" s="44"/>
+      <c r="CD20" s="44"/>
+      <c r="CE20" s="44"/>
+      <c r="CF20" s="44"/>
+      <c r="CG20" s="44"/>
+      <c r="CH20" s="44"/>
+      <c r="CI20" s="44"/>
+      <c r="CJ20" s="44"/>
+      <c r="CK20" s="44"/>
+      <c r="CL20" s="44"/>
+      <c r="CM20" s="44"/>
+      <c r="CN20" s="44"/>
+      <c r="CO20" s="44"/>
+      <c r="CP20" s="44"/>
+      <c r="CQ20" s="44"/>
+      <c r="CR20" s="44"/>
+      <c r="CS20" s="44"/>
+      <c r="CT20" s="44"/>
+      <c r="CU20" s="44"/>
+      <c r="CV20" s="44"/>
+      <c r="CW20" s="44"/>
+      <c r="CX20" s="44"/>
+      <c r="CY20" s="44"/>
+      <c r="CZ20" s="44"/>
+      <c r="DA20" s="44"/>
+      <c r="DB20" s="44"/>
+    </row>
+    <row r="21" spans="1:106" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
@@ -4228,16 +5417,58 @@
       <c r="BJ21" s="114"/>
       <c r="BK21" s="114"/>
       <c r="BL21" s="114"/>
-    </row>
-    <row r="22" spans="1:64" s="2" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM21" s="114"/>
+      <c r="BN21" s="114"/>
+      <c r="BO21" s="114"/>
+      <c r="BP21" s="114"/>
+      <c r="BQ21" s="114"/>
+      <c r="BR21" s="114"/>
+      <c r="BS21" s="114"/>
+      <c r="BT21" s="114"/>
+      <c r="BU21" s="114"/>
+      <c r="BV21" s="114"/>
+      <c r="BW21" s="114"/>
+      <c r="BX21" s="114"/>
+      <c r="BY21" s="114"/>
+      <c r="BZ21" s="114"/>
+      <c r="CA21" s="114"/>
+      <c r="CB21" s="114"/>
+      <c r="CC21" s="114"/>
+      <c r="CD21" s="114"/>
+      <c r="CE21" s="114"/>
+      <c r="CF21" s="114"/>
+      <c r="CG21" s="114"/>
+      <c r="CH21" s="114"/>
+      <c r="CI21" s="114"/>
+      <c r="CJ21" s="114"/>
+      <c r="CK21" s="114"/>
+      <c r="CL21" s="114"/>
+      <c r="CM21" s="114"/>
+      <c r="CN21" s="114"/>
+      <c r="CO21" s="114"/>
+      <c r="CP21" s="114"/>
+      <c r="CQ21" s="114"/>
+      <c r="CR21" s="114"/>
+      <c r="CS21" s="114"/>
+      <c r="CT21" s="114"/>
+      <c r="CU21" s="114"/>
+      <c r="CV21" s="114"/>
+      <c r="CW21" s="114"/>
+      <c r="CX21" s="114"/>
+      <c r="CY21" s="114"/>
+      <c r="CZ21" s="114"/>
+      <c r="DA21" s="114"/>
+      <c r="DB21" s="114"/>
+    </row>
+    <row r="22" spans="1:106" s="2" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" s="102" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
@@ -4306,16 +5537,58 @@
       <c r="BJ22" s="44"/>
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
-    </row>
-    <row r="23" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM22" s="44"/>
+      <c r="BN22" s="44"/>
+      <c r="BO22" s="44"/>
+      <c r="BP22" s="44"/>
+      <c r="BQ22" s="44"/>
+      <c r="BR22" s="44"/>
+      <c r="BS22" s="44"/>
+      <c r="BT22" s="44"/>
+      <c r="BU22" s="44"/>
+      <c r="BV22" s="44"/>
+      <c r="BW22" s="44"/>
+      <c r="BX22" s="44"/>
+      <c r="BY22" s="44"/>
+      <c r="BZ22" s="44"/>
+      <c r="CA22" s="44"/>
+      <c r="CB22" s="44"/>
+      <c r="CC22" s="44"/>
+      <c r="CD22" s="44"/>
+      <c r="CE22" s="44"/>
+      <c r="CF22" s="44"/>
+      <c r="CG22" s="44"/>
+      <c r="CH22" s="44"/>
+      <c r="CI22" s="44"/>
+      <c r="CJ22" s="44"/>
+      <c r="CK22" s="44"/>
+      <c r="CL22" s="44"/>
+      <c r="CM22" s="44"/>
+      <c r="CN22" s="44"/>
+      <c r="CO22" s="44"/>
+      <c r="CP22" s="44"/>
+      <c r="CQ22" s="44"/>
+      <c r="CR22" s="44"/>
+      <c r="CS22" s="44"/>
+      <c r="CT22" s="44"/>
+      <c r="CU22" s="44"/>
+      <c r="CV22" s="44"/>
+      <c r="CW22" s="44"/>
+      <c r="CX22" s="44"/>
+      <c r="CY22" s="44"/>
+      <c r="CZ22" s="44"/>
+      <c r="DA22" s="44"/>
+      <c r="DB22" s="44"/>
+    </row>
+    <row r="23" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
@@ -4384,14 +5657,56 @@
       <c r="BJ23" s="114"/>
       <c r="BK23" s="114"/>
       <c r="BL23" s="114"/>
-    </row>
-    <row r="24" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM23" s="114"/>
+      <c r="BN23" s="114"/>
+      <c r="BO23" s="114"/>
+      <c r="BP23" s="114"/>
+      <c r="BQ23" s="114"/>
+      <c r="BR23" s="114"/>
+      <c r="BS23" s="114"/>
+      <c r="BT23" s="114"/>
+      <c r="BU23" s="114"/>
+      <c r="BV23" s="114"/>
+      <c r="BW23" s="114"/>
+      <c r="BX23" s="114"/>
+      <c r="BY23" s="114"/>
+      <c r="BZ23" s="114"/>
+      <c r="CA23" s="114"/>
+      <c r="CB23" s="114"/>
+      <c r="CC23" s="114"/>
+      <c r="CD23" s="114"/>
+      <c r="CE23" s="114"/>
+      <c r="CF23" s="114"/>
+      <c r="CG23" s="114"/>
+      <c r="CH23" s="114"/>
+      <c r="CI23" s="114"/>
+      <c r="CJ23" s="114"/>
+      <c r="CK23" s="114"/>
+      <c r="CL23" s="114"/>
+      <c r="CM23" s="114"/>
+      <c r="CN23" s="114"/>
+      <c r="CO23" s="114"/>
+      <c r="CP23" s="114"/>
+      <c r="CQ23" s="114"/>
+      <c r="CR23" s="114"/>
+      <c r="CS23" s="114"/>
+      <c r="CT23" s="114"/>
+      <c r="CU23" s="114"/>
+      <c r="CV23" s="114"/>
+      <c r="CW23" s="114"/>
+      <c r="CX23" s="114"/>
+      <c r="CY23" s="114"/>
+      <c r="CZ23" s="114"/>
+      <c r="DA23" s="114"/>
+      <c r="DB23" s="114"/>
+    </row>
+    <row r="24" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" s="102"/>
       <c r="C24" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="17">
         <v>0</v>
@@ -4460,14 +5775,56 @@
       <c r="BJ24" s="114"/>
       <c r="BK24" s="114"/>
       <c r="BL24" s="114"/>
-    </row>
-    <row r="25" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM24" s="114"/>
+      <c r="BN24" s="114"/>
+      <c r="BO24" s="114"/>
+      <c r="BP24" s="114"/>
+      <c r="BQ24" s="114"/>
+      <c r="BR24" s="114"/>
+      <c r="BS24" s="114"/>
+      <c r="BT24" s="114"/>
+      <c r="BU24" s="114"/>
+      <c r="BV24" s="114"/>
+      <c r="BW24" s="114"/>
+      <c r="BX24" s="114"/>
+      <c r="BY24" s="114"/>
+      <c r="BZ24" s="114"/>
+      <c r="CA24" s="114"/>
+      <c r="CB24" s="114"/>
+      <c r="CC24" s="114"/>
+      <c r="CD24" s="114"/>
+      <c r="CE24" s="114"/>
+      <c r="CF24" s="114"/>
+      <c r="CG24" s="114"/>
+      <c r="CH24" s="114"/>
+      <c r="CI24" s="114"/>
+      <c r="CJ24" s="114"/>
+      <c r="CK24" s="114"/>
+      <c r="CL24" s="114"/>
+      <c r="CM24" s="114"/>
+      <c r="CN24" s="114"/>
+      <c r="CO24" s="114"/>
+      <c r="CP24" s="114"/>
+      <c r="CQ24" s="114"/>
+      <c r="CR24" s="114"/>
+      <c r="CS24" s="114"/>
+      <c r="CT24" s="114"/>
+      <c r="CU24" s="114"/>
+      <c r="CV24" s="114"/>
+      <c r="CW24" s="114"/>
+      <c r="CX24" s="114"/>
+      <c r="CY24" s="114"/>
+      <c r="CZ24" s="114"/>
+      <c r="DA24" s="114"/>
+      <c r="DB24" s="114"/>
+    </row>
+    <row r="25" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" s="102"/>
       <c r="C25" s="61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17">
         <v>0</v>
@@ -4536,10 +5893,52 @@
       <c r="BJ25" s="44"/>
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
-    </row>
-    <row r="26" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM25" s="44"/>
+      <c r="BN25" s="44"/>
+      <c r="BO25" s="44"/>
+      <c r="BP25" s="44"/>
+      <c r="BQ25" s="44"/>
+      <c r="BR25" s="44"/>
+      <c r="BS25" s="44"/>
+      <c r="BT25" s="44"/>
+      <c r="BU25" s="44"/>
+      <c r="BV25" s="44"/>
+      <c r="BW25" s="44"/>
+      <c r="BX25" s="44"/>
+      <c r="BY25" s="44"/>
+      <c r="BZ25" s="44"/>
+      <c r="CA25" s="44"/>
+      <c r="CB25" s="44"/>
+      <c r="CC25" s="44"/>
+      <c r="CD25" s="44"/>
+      <c r="CE25" s="44"/>
+      <c r="CF25" s="44"/>
+      <c r="CG25" s="44"/>
+      <c r="CH25" s="44"/>
+      <c r="CI25" s="44"/>
+      <c r="CJ25" s="44"/>
+      <c r="CK25" s="44"/>
+      <c r="CL25" s="44"/>
+      <c r="CM25" s="44"/>
+      <c r="CN25" s="44"/>
+      <c r="CO25" s="44"/>
+      <c r="CP25" s="44"/>
+      <c r="CQ25" s="44"/>
+      <c r="CR25" s="44"/>
+      <c r="CS25" s="44"/>
+      <c r="CT25" s="44"/>
+      <c r="CU25" s="44"/>
+      <c r="CV25" s="44"/>
+      <c r="CW25" s="44"/>
+      <c r="CX25" s="44"/>
+      <c r="CY25" s="44"/>
+      <c r="CZ25" s="44"/>
+      <c r="DA25" s="44"/>
+      <c r="DB25" s="44"/>
+    </row>
+    <row r="26" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="103"/>
       <c r="C26" s="80"/>
@@ -4548,7 +5947,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I26" s="44"/>
@@ -4607,16 +6006,58 @@
       <c r="BJ26" s="44"/>
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
-    </row>
-    <row r="27" spans="1:64" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM26" s="44"/>
+      <c r="BN26" s="44"/>
+      <c r="BO26" s="44"/>
+      <c r="BP26" s="44"/>
+      <c r="BQ26" s="44"/>
+      <c r="BR26" s="44"/>
+      <c r="BS26" s="44"/>
+      <c r="BT26" s="44"/>
+      <c r="BU26" s="44"/>
+      <c r="BV26" s="44"/>
+      <c r="BW26" s="44"/>
+      <c r="BX26" s="44"/>
+      <c r="BY26" s="44"/>
+      <c r="BZ26" s="44"/>
+      <c r="CA26" s="44"/>
+      <c r="CB26" s="44"/>
+      <c r="CC26" s="44"/>
+      <c r="CD26" s="44"/>
+      <c r="CE26" s="44"/>
+      <c r="CF26" s="44"/>
+      <c r="CG26" s="44"/>
+      <c r="CH26" s="44"/>
+      <c r="CI26" s="44"/>
+      <c r="CJ26" s="44"/>
+      <c r="CK26" s="44"/>
+      <c r="CL26" s="44"/>
+      <c r="CM26" s="44"/>
+      <c r="CN26" s="44"/>
+      <c r="CO26" s="44"/>
+      <c r="CP26" s="44"/>
+      <c r="CQ26" s="44"/>
+      <c r="CR26" s="44"/>
+      <c r="CS26" s="44"/>
+      <c r="CT26" s="44"/>
+      <c r="CU26" s="44"/>
+      <c r="CV26" s="44"/>
+      <c r="CW26" s="44"/>
+      <c r="CX26" s="44"/>
+      <c r="CY26" s="44"/>
+      <c r="CZ26" s="44"/>
+      <c r="DA26" s="44"/>
+      <c r="DB26" s="44"/>
+    </row>
+    <row r="27" spans="1:106" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="69" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B27" s="104" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="23">
         <v>0</v>
@@ -4629,7 +6070,7 @@
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I27" s="44"/>
@@ -4688,10 +6129,52 @@
       <c r="BJ27" s="44"/>
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
-    </row>
-    <row r="28" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM27" s="44"/>
+      <c r="BN27" s="44"/>
+      <c r="BO27" s="44"/>
+      <c r="BP27" s="44"/>
+      <c r="BQ27" s="44"/>
+      <c r="BR27" s="44"/>
+      <c r="BS27" s="44"/>
+      <c r="BT27" s="44"/>
+      <c r="BU27" s="44"/>
+      <c r="BV27" s="44"/>
+      <c r="BW27" s="44"/>
+      <c r="BX27" s="44"/>
+      <c r="BY27" s="44"/>
+      <c r="BZ27" s="44"/>
+      <c r="CA27" s="44"/>
+      <c r="CB27" s="44"/>
+      <c r="CC27" s="44"/>
+      <c r="CD27" s="44"/>
+      <c r="CE27" s="44"/>
+      <c r="CF27" s="44"/>
+      <c r="CG27" s="44"/>
+      <c r="CH27" s="44"/>
+      <c r="CI27" s="44"/>
+      <c r="CJ27" s="44"/>
+      <c r="CK27" s="44"/>
+      <c r="CL27" s="44"/>
+      <c r="CM27" s="44"/>
+      <c r="CN27" s="44"/>
+      <c r="CO27" s="44"/>
+      <c r="CP27" s="44"/>
+      <c r="CQ27" s="44"/>
+      <c r="CR27" s="44"/>
+      <c r="CS27" s="44"/>
+      <c r="CT27" s="44"/>
+      <c r="CU27" s="44"/>
+      <c r="CV27" s="44"/>
+      <c r="CW27" s="44"/>
+      <c r="CX27" s="44"/>
+      <c r="CY27" s="44"/>
+      <c r="CZ27" s="44"/>
+      <c r="DA27" s="44"/>
+      <c r="DB27" s="44"/>
+    </row>
+    <row r="28" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" s="104"/>
       <c r="C28" s="81"/>
@@ -4706,7 +6189,7 @@
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="I28" s="44"/>
@@ -4765,10 +6248,52 @@
       <c r="BJ28" s="44"/>
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
-    </row>
-    <row r="29" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM28" s="44"/>
+      <c r="BN28" s="44"/>
+      <c r="BO28" s="44"/>
+      <c r="BP28" s="44"/>
+      <c r="BQ28" s="44"/>
+      <c r="BR28" s="44"/>
+      <c r="BS28" s="44"/>
+      <c r="BT28" s="44"/>
+      <c r="BU28" s="44"/>
+      <c r="BV28" s="44"/>
+      <c r="BW28" s="44"/>
+      <c r="BX28" s="44"/>
+      <c r="BY28" s="44"/>
+      <c r="BZ28" s="44"/>
+      <c r="CA28" s="44"/>
+      <c r="CB28" s="44"/>
+      <c r="CC28" s="44"/>
+      <c r="CD28" s="44"/>
+      <c r="CE28" s="44"/>
+      <c r="CF28" s="44"/>
+      <c r="CG28" s="44"/>
+      <c r="CH28" s="44"/>
+      <c r="CI28" s="44"/>
+      <c r="CJ28" s="44"/>
+      <c r="CK28" s="44"/>
+      <c r="CL28" s="44"/>
+      <c r="CM28" s="44"/>
+      <c r="CN28" s="44"/>
+      <c r="CO28" s="44"/>
+      <c r="CP28" s="44"/>
+      <c r="CQ28" s="44"/>
+      <c r="CR28" s="44"/>
+      <c r="CS28" s="44"/>
+      <c r="CT28" s="44"/>
+      <c r="CU28" s="44"/>
+      <c r="CV28" s="44"/>
+      <c r="CW28" s="44"/>
+      <c r="CX28" s="44"/>
+      <c r="CY28" s="44"/>
+      <c r="CZ28" s="44"/>
+      <c r="DA28" s="44"/>
+      <c r="DB28" s="44"/>
+    </row>
+    <row r="29" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" s="104"/>
       <c r="C29" s="81"/>
@@ -4783,7 +6308,7 @@
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="I29" s="44"/>
@@ -4842,14 +6367,56 @@
       <c r="BJ29" s="44"/>
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
-    </row>
-    <row r="30" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM29" s="44"/>
+      <c r="BN29" s="44"/>
+      <c r="BO29" s="44"/>
+      <c r="BP29" s="44"/>
+      <c r="BQ29" s="44"/>
+      <c r="BR29" s="44"/>
+      <c r="BS29" s="44"/>
+      <c r="BT29" s="44"/>
+      <c r="BU29" s="44"/>
+      <c r="BV29" s="44"/>
+      <c r="BW29" s="44"/>
+      <c r="BX29" s="44"/>
+      <c r="BY29" s="44"/>
+      <c r="BZ29" s="44"/>
+      <c r="CA29" s="44"/>
+      <c r="CB29" s="44"/>
+      <c r="CC29" s="44"/>
+      <c r="CD29" s="44"/>
+      <c r="CE29" s="44"/>
+      <c r="CF29" s="44"/>
+      <c r="CG29" s="44"/>
+      <c r="CH29" s="44"/>
+      <c r="CI29" s="44"/>
+      <c r="CJ29" s="44"/>
+      <c r="CK29" s="44"/>
+      <c r="CL29" s="44"/>
+      <c r="CM29" s="44"/>
+      <c r="CN29" s="44"/>
+      <c r="CO29" s="44"/>
+      <c r="CP29" s="44"/>
+      <c r="CQ29" s="44"/>
+      <c r="CR29" s="44"/>
+      <c r="CS29" s="44"/>
+      <c r="CT29" s="44"/>
+      <c r="CU29" s="44"/>
+      <c r="CV29" s="44"/>
+      <c r="CW29" s="44"/>
+      <c r="CX29" s="44"/>
+      <c r="CY29" s="44"/>
+      <c r="CZ29" s="44"/>
+      <c r="DA29" s="44"/>
+      <c r="DB29" s="44"/>
+    </row>
+    <row r="30" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="69" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30" s="104"/>
       <c r="C30" s="81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" s="23">
         <v>0</v>
@@ -4862,7 +6429,7 @@
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="I30" s="44"/>
@@ -4921,14 +6488,56 @@
       <c r="BJ30" s="44"/>
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
-    </row>
-    <row r="31" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM30" s="44"/>
+      <c r="BN30" s="44"/>
+      <c r="BO30" s="44"/>
+      <c r="BP30" s="44"/>
+      <c r="BQ30" s="44"/>
+      <c r="BR30" s="44"/>
+      <c r="BS30" s="44"/>
+      <c r="BT30" s="44"/>
+      <c r="BU30" s="44"/>
+      <c r="BV30" s="44"/>
+      <c r="BW30" s="44"/>
+      <c r="BX30" s="44"/>
+      <c r="BY30" s="44"/>
+      <c r="BZ30" s="44"/>
+      <c r="CA30" s="44"/>
+      <c r="CB30" s="44"/>
+      <c r="CC30" s="44"/>
+      <c r="CD30" s="44"/>
+      <c r="CE30" s="44"/>
+      <c r="CF30" s="44"/>
+      <c r="CG30" s="44"/>
+      <c r="CH30" s="44"/>
+      <c r="CI30" s="44"/>
+      <c r="CJ30" s="44"/>
+      <c r="CK30" s="44"/>
+      <c r="CL30" s="44"/>
+      <c r="CM30" s="44"/>
+      <c r="CN30" s="44"/>
+      <c r="CO30" s="44"/>
+      <c r="CP30" s="44"/>
+      <c r="CQ30" s="44"/>
+      <c r="CR30" s="44"/>
+      <c r="CS30" s="44"/>
+      <c r="CT30" s="44"/>
+      <c r="CU30" s="44"/>
+      <c r="CV30" s="44"/>
+      <c r="CW30" s="44"/>
+      <c r="CX30" s="44"/>
+      <c r="CY30" s="44"/>
+      <c r="CZ30" s="44"/>
+      <c r="DA30" s="44"/>
+      <c r="DB30" s="44"/>
+    </row>
+    <row r="31" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B31" s="104"/>
       <c r="C31" s="81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" s="23">
         <v>0</v>
@@ -4941,7 +6550,7 @@
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="I31" s="44"/>
@@ -5000,10 +6609,52 @@
       <c r="BJ31" s="44"/>
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
-    </row>
-    <row r="32" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM31" s="44"/>
+      <c r="BN31" s="44"/>
+      <c r="BO31" s="44"/>
+      <c r="BP31" s="44"/>
+      <c r="BQ31" s="44"/>
+      <c r="BR31" s="44"/>
+      <c r="BS31" s="44"/>
+      <c r="BT31" s="44"/>
+      <c r="BU31" s="44"/>
+      <c r="BV31" s="44"/>
+      <c r="BW31" s="44"/>
+      <c r="BX31" s="44"/>
+      <c r="BY31" s="44"/>
+      <c r="BZ31" s="44"/>
+      <c r="CA31" s="44"/>
+      <c r="CB31" s="44"/>
+      <c r="CC31" s="44"/>
+      <c r="CD31" s="44"/>
+      <c r="CE31" s="44"/>
+      <c r="CF31" s="44"/>
+      <c r="CG31" s="44"/>
+      <c r="CH31" s="44"/>
+      <c r="CI31" s="44"/>
+      <c r="CJ31" s="44"/>
+      <c r="CK31" s="44"/>
+      <c r="CL31" s="44"/>
+      <c r="CM31" s="44"/>
+      <c r="CN31" s="44"/>
+      <c r="CO31" s="44"/>
+      <c r="CP31" s="44"/>
+      <c r="CQ31" s="44"/>
+      <c r="CR31" s="44"/>
+      <c r="CS31" s="44"/>
+      <c r="CT31" s="44"/>
+      <c r="CU31" s="44"/>
+      <c r="CV31" s="44"/>
+      <c r="CW31" s="44"/>
+      <c r="CX31" s="44"/>
+      <c r="CY31" s="44"/>
+      <c r="CZ31" s="44"/>
+      <c r="DA31" s="44"/>
+      <c r="DB31" s="44"/>
+    </row>
+    <row r="32" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="70" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="105"/>
       <c r="C32" s="82"/>
@@ -5012,7 +6663,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I32" s="44"/>
@@ -5071,16 +6722,58 @@
       <c r="BJ32" s="44"/>
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
-    </row>
-    <row r="33" spans="1:64" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM32" s="44"/>
+      <c r="BN32" s="44"/>
+      <c r="BO32" s="44"/>
+      <c r="BP32" s="44"/>
+      <c r="BQ32" s="44"/>
+      <c r="BR32" s="44"/>
+      <c r="BS32" s="44"/>
+      <c r="BT32" s="44"/>
+      <c r="BU32" s="44"/>
+      <c r="BV32" s="44"/>
+      <c r="BW32" s="44"/>
+      <c r="BX32" s="44"/>
+      <c r="BY32" s="44"/>
+      <c r="BZ32" s="44"/>
+      <c r="CA32" s="44"/>
+      <c r="CB32" s="44"/>
+      <c r="CC32" s="44"/>
+      <c r="CD32" s="44"/>
+      <c r="CE32" s="44"/>
+      <c r="CF32" s="44"/>
+      <c r="CG32" s="44"/>
+      <c r="CH32" s="44"/>
+      <c r="CI32" s="44"/>
+      <c r="CJ32" s="44"/>
+      <c r="CK32" s="44"/>
+      <c r="CL32" s="44"/>
+      <c r="CM32" s="44"/>
+      <c r="CN32" s="44"/>
+      <c r="CO32" s="44"/>
+      <c r="CP32" s="44"/>
+      <c r="CQ32" s="44"/>
+      <c r="CR32" s="44"/>
+      <c r="CS32" s="44"/>
+      <c r="CT32" s="44"/>
+      <c r="CU32" s="44"/>
+      <c r="CV32" s="44"/>
+      <c r="CW32" s="44"/>
+      <c r="CX32" s="44"/>
+      <c r="CY32" s="44"/>
+      <c r="CZ32" s="44"/>
+      <c r="DA32" s="44"/>
+      <c r="DB32" s="44"/>
+    </row>
+    <row r="33" spans="1:106" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="71" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B33" s="106" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="29">
         <v>0</v>
@@ -5093,7 +6786,7 @@
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I33" s="44"/>
@@ -5152,10 +6845,52 @@
       <c r="BJ33" s="44"/>
       <c r="BK33" s="44"/>
       <c r="BL33" s="44"/>
-    </row>
-    <row r="34" spans="1:64" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM33" s="44"/>
+      <c r="BN33" s="44"/>
+      <c r="BO33" s="44"/>
+      <c r="BP33" s="44"/>
+      <c r="BQ33" s="44"/>
+      <c r="BR33" s="44"/>
+      <c r="BS33" s="44"/>
+      <c r="BT33" s="44"/>
+      <c r="BU33" s="44"/>
+      <c r="BV33" s="44"/>
+      <c r="BW33" s="44"/>
+      <c r="BX33" s="44"/>
+      <c r="BY33" s="44"/>
+      <c r="BZ33" s="44"/>
+      <c r="CA33" s="44"/>
+      <c r="CB33" s="44"/>
+      <c r="CC33" s="44"/>
+      <c r="CD33" s="44"/>
+      <c r="CE33" s="44"/>
+      <c r="CF33" s="44"/>
+      <c r="CG33" s="44"/>
+      <c r="CH33" s="44"/>
+      <c r="CI33" s="44"/>
+      <c r="CJ33" s="44"/>
+      <c r="CK33" s="44"/>
+      <c r="CL33" s="44"/>
+      <c r="CM33" s="44"/>
+      <c r="CN33" s="44"/>
+      <c r="CO33" s="44"/>
+      <c r="CP33" s="44"/>
+      <c r="CQ33" s="44"/>
+      <c r="CR33" s="44"/>
+      <c r="CS33" s="44"/>
+      <c r="CT33" s="44"/>
+      <c r="CU33" s="44"/>
+      <c r="CV33" s="44"/>
+      <c r="CW33" s="44"/>
+      <c r="CX33" s="44"/>
+      <c r="CY33" s="44"/>
+      <c r="CZ33" s="44"/>
+      <c r="DA33" s="44"/>
+      <c r="DB33" s="44"/>
+    </row>
+    <row r="34" spans="1:106" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" s="106"/>
       <c r="C34" s="83"/>
@@ -5170,7 +6905,7 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="I34" s="44"/>
@@ -5229,10 +6964,52 @@
       <c r="BJ34" s="44"/>
       <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
-    </row>
-    <row r="35" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM34" s="44"/>
+      <c r="BN34" s="44"/>
+      <c r="BO34" s="44"/>
+      <c r="BP34" s="44"/>
+      <c r="BQ34" s="44"/>
+      <c r="BR34" s="44"/>
+      <c r="BS34" s="44"/>
+      <c r="BT34" s="44"/>
+      <c r="BU34" s="44"/>
+      <c r="BV34" s="44"/>
+      <c r="BW34" s="44"/>
+      <c r="BX34" s="44"/>
+      <c r="BY34" s="44"/>
+      <c r="BZ34" s="44"/>
+      <c r="CA34" s="44"/>
+      <c r="CB34" s="44"/>
+      <c r="CC34" s="44"/>
+      <c r="CD34" s="44"/>
+      <c r="CE34" s="44"/>
+      <c r="CF34" s="44"/>
+      <c r="CG34" s="44"/>
+      <c r="CH34" s="44"/>
+      <c r="CI34" s="44"/>
+      <c r="CJ34" s="44"/>
+      <c r="CK34" s="44"/>
+      <c r="CL34" s="44"/>
+      <c r="CM34" s="44"/>
+      <c r="CN34" s="44"/>
+      <c r="CO34" s="44"/>
+      <c r="CP34" s="44"/>
+      <c r="CQ34" s="44"/>
+      <c r="CR34" s="44"/>
+      <c r="CS34" s="44"/>
+      <c r="CT34" s="44"/>
+      <c r="CU34" s="44"/>
+      <c r="CV34" s="44"/>
+      <c r="CW34" s="44"/>
+      <c r="CX34" s="44"/>
+      <c r="CY34" s="44"/>
+      <c r="CZ34" s="44"/>
+      <c r="DA34" s="44"/>
+      <c r="DB34" s="44"/>
+    </row>
+    <row r="35" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="71" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" s="106"/>
       <c r="C35" s="83"/>
@@ -5247,7 +7024,7 @@
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="I35" s="44"/>
@@ -5306,10 +7083,52 @@
       <c r="BJ35" s="44"/>
       <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
-    </row>
-    <row r="36" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM35" s="44"/>
+      <c r="BN35" s="44"/>
+      <c r="BO35" s="44"/>
+      <c r="BP35" s="44"/>
+      <c r="BQ35" s="44"/>
+      <c r="BR35" s="44"/>
+      <c r="BS35" s="44"/>
+      <c r="BT35" s="44"/>
+      <c r="BU35" s="44"/>
+      <c r="BV35" s="44"/>
+      <c r="BW35" s="44"/>
+      <c r="BX35" s="44"/>
+      <c r="BY35" s="44"/>
+      <c r="BZ35" s="44"/>
+      <c r="CA35" s="44"/>
+      <c r="CB35" s="44"/>
+      <c r="CC35" s="44"/>
+      <c r="CD35" s="44"/>
+      <c r="CE35" s="44"/>
+      <c r="CF35" s="44"/>
+      <c r="CG35" s="44"/>
+      <c r="CH35" s="44"/>
+      <c r="CI35" s="44"/>
+      <c r="CJ35" s="44"/>
+      <c r="CK35" s="44"/>
+      <c r="CL35" s="44"/>
+      <c r="CM35" s="44"/>
+      <c r="CN35" s="44"/>
+      <c r="CO35" s="44"/>
+      <c r="CP35" s="44"/>
+      <c r="CQ35" s="44"/>
+      <c r="CR35" s="44"/>
+      <c r="CS35" s="44"/>
+      <c r="CT35" s="44"/>
+      <c r="CU35" s="44"/>
+      <c r="CV35" s="44"/>
+      <c r="CW35" s="44"/>
+      <c r="CX35" s="44"/>
+      <c r="CY35" s="44"/>
+      <c r="CZ35" s="44"/>
+      <c r="DA35" s="44"/>
+      <c r="DB35" s="44"/>
+    </row>
+    <row r="36" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="71" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36" s="106"/>
       <c r="C36" s="83"/>
@@ -5324,7 +7143,7 @@
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="I36" s="44"/>
@@ -5383,14 +7202,56 @@
       <c r="BJ36" s="44"/>
       <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
-    </row>
-    <row r="37" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM36" s="44"/>
+      <c r="BN36" s="44"/>
+      <c r="BO36" s="44"/>
+      <c r="BP36" s="44"/>
+      <c r="BQ36" s="44"/>
+      <c r="BR36" s="44"/>
+      <c r="BS36" s="44"/>
+      <c r="BT36" s="44"/>
+      <c r="BU36" s="44"/>
+      <c r="BV36" s="44"/>
+      <c r="BW36" s="44"/>
+      <c r="BX36" s="44"/>
+      <c r="BY36" s="44"/>
+      <c r="BZ36" s="44"/>
+      <c r="CA36" s="44"/>
+      <c r="CB36" s="44"/>
+      <c r="CC36" s="44"/>
+      <c r="CD36" s="44"/>
+      <c r="CE36" s="44"/>
+      <c r="CF36" s="44"/>
+      <c r="CG36" s="44"/>
+      <c r="CH36" s="44"/>
+      <c r="CI36" s="44"/>
+      <c r="CJ36" s="44"/>
+      <c r="CK36" s="44"/>
+      <c r="CL36" s="44"/>
+      <c r="CM36" s="44"/>
+      <c r="CN36" s="44"/>
+      <c r="CO36" s="44"/>
+      <c r="CP36" s="44"/>
+      <c r="CQ36" s="44"/>
+      <c r="CR36" s="44"/>
+      <c r="CS36" s="44"/>
+      <c r="CT36" s="44"/>
+      <c r="CU36" s="44"/>
+      <c r="CV36" s="44"/>
+      <c r="CW36" s="44"/>
+      <c r="CX36" s="44"/>
+      <c r="CY36" s="44"/>
+      <c r="CZ36" s="44"/>
+      <c r="DA36" s="44"/>
+      <c r="DB36" s="44"/>
+    </row>
+    <row r="37" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="71" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B37" s="106"/>
       <c r="C37" s="83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="29">
         <v>0</v>
@@ -5403,7 +7264,7 @@
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I37" s="44"/>
@@ -5462,14 +7323,56 @@
       <c r="BJ37" s="44"/>
       <c r="BK37" s="44"/>
       <c r="BL37" s="44"/>
-    </row>
-    <row r="38" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM37" s="44"/>
+      <c r="BN37" s="44"/>
+      <c r="BO37" s="44"/>
+      <c r="BP37" s="44"/>
+      <c r="BQ37" s="44"/>
+      <c r="BR37" s="44"/>
+      <c r="BS37" s="44"/>
+      <c r="BT37" s="44"/>
+      <c r="BU37" s="44"/>
+      <c r="BV37" s="44"/>
+      <c r="BW37" s="44"/>
+      <c r="BX37" s="44"/>
+      <c r="BY37" s="44"/>
+      <c r="BZ37" s="44"/>
+      <c r="CA37" s="44"/>
+      <c r="CB37" s="44"/>
+      <c r="CC37" s="44"/>
+      <c r="CD37" s="44"/>
+      <c r="CE37" s="44"/>
+      <c r="CF37" s="44"/>
+      <c r="CG37" s="44"/>
+      <c r="CH37" s="44"/>
+      <c r="CI37" s="44"/>
+      <c r="CJ37" s="44"/>
+      <c r="CK37" s="44"/>
+      <c r="CL37" s="44"/>
+      <c r="CM37" s="44"/>
+      <c r="CN37" s="44"/>
+      <c r="CO37" s="44"/>
+      <c r="CP37" s="44"/>
+      <c r="CQ37" s="44"/>
+      <c r="CR37" s="44"/>
+      <c r="CS37" s="44"/>
+      <c r="CT37" s="44"/>
+      <c r="CU37" s="44"/>
+      <c r="CV37" s="44"/>
+      <c r="CW37" s="44"/>
+      <c r="CX37" s="44"/>
+      <c r="CY37" s="44"/>
+      <c r="CZ37" s="44"/>
+      <c r="DA37" s="44"/>
+      <c r="DB37" s="44"/>
+    </row>
+    <row r="38" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B38" s="106"/>
       <c r="C38" s="83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38" s="29">
         <v>0</v>
@@ -5482,7 +7385,7 @@
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="I38" s="44"/>
@@ -5541,10 +7444,52 @@
       <c r="BJ38" s="44"/>
       <c r="BK38" s="44"/>
       <c r="BL38" s="44"/>
-    </row>
-    <row r="39" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM38" s="44"/>
+      <c r="BN38" s="44"/>
+      <c r="BO38" s="44"/>
+      <c r="BP38" s="44"/>
+      <c r="BQ38" s="44"/>
+      <c r="BR38" s="44"/>
+      <c r="BS38" s="44"/>
+      <c r="BT38" s="44"/>
+      <c r="BU38" s="44"/>
+      <c r="BV38" s="44"/>
+      <c r="BW38" s="44"/>
+      <c r="BX38" s="44"/>
+      <c r="BY38" s="44"/>
+      <c r="BZ38" s="44"/>
+      <c r="CA38" s="44"/>
+      <c r="CB38" s="44"/>
+      <c r="CC38" s="44"/>
+      <c r="CD38" s="44"/>
+      <c r="CE38" s="44"/>
+      <c r="CF38" s="44"/>
+      <c r="CG38" s="44"/>
+      <c r="CH38" s="44"/>
+      <c r="CI38" s="44"/>
+      <c r="CJ38" s="44"/>
+      <c r="CK38" s="44"/>
+      <c r="CL38" s="44"/>
+      <c r="CM38" s="44"/>
+      <c r="CN38" s="44"/>
+      <c r="CO38" s="44"/>
+      <c r="CP38" s="44"/>
+      <c r="CQ38" s="44"/>
+      <c r="CR38" s="44"/>
+      <c r="CS38" s="44"/>
+      <c r="CT38" s="44"/>
+      <c r="CU38" s="44"/>
+      <c r="CV38" s="44"/>
+      <c r="CW38" s="44"/>
+      <c r="CX38" s="44"/>
+      <c r="CY38" s="44"/>
+      <c r="CZ38" s="44"/>
+      <c r="DA38" s="44"/>
+      <c r="DB38" s="44"/>
+    </row>
+    <row r="39" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="72" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39" s="107"/>
       <c r="C39" s="84"/>
@@ -5553,7 +7498,7 @@
       <c r="F39" s="34"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I39" s="44"/>
@@ -5612,16 +7557,58 @@
       <c r="BJ39" s="44"/>
       <c r="BK39" s="44"/>
       <c r="BL39" s="44"/>
-    </row>
-    <row r="40" spans="1:64" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM39" s="44"/>
+      <c r="BN39" s="44"/>
+      <c r="BO39" s="44"/>
+      <c r="BP39" s="44"/>
+      <c r="BQ39" s="44"/>
+      <c r="BR39" s="44"/>
+      <c r="BS39" s="44"/>
+      <c r="BT39" s="44"/>
+      <c r="BU39" s="44"/>
+      <c r="BV39" s="44"/>
+      <c r="BW39" s="44"/>
+      <c r="BX39" s="44"/>
+      <c r="BY39" s="44"/>
+      <c r="BZ39" s="44"/>
+      <c r="CA39" s="44"/>
+      <c r="CB39" s="44"/>
+      <c r="CC39" s="44"/>
+      <c r="CD39" s="44"/>
+      <c r="CE39" s="44"/>
+      <c r="CF39" s="44"/>
+      <c r="CG39" s="44"/>
+      <c r="CH39" s="44"/>
+      <c r="CI39" s="44"/>
+      <c r="CJ39" s="44"/>
+      <c r="CK39" s="44"/>
+      <c r="CL39" s="44"/>
+      <c r="CM39" s="44"/>
+      <c r="CN39" s="44"/>
+      <c r="CO39" s="44"/>
+      <c r="CP39" s="44"/>
+      <c r="CQ39" s="44"/>
+      <c r="CR39" s="44"/>
+      <c r="CS39" s="44"/>
+      <c r="CT39" s="44"/>
+      <c r="CU39" s="44"/>
+      <c r="CV39" s="44"/>
+      <c r="CW39" s="44"/>
+      <c r="CX39" s="44"/>
+      <c r="CY39" s="44"/>
+      <c r="CZ39" s="44"/>
+      <c r="DA39" s="44"/>
+      <c r="DB39" s="44"/>
+    </row>
+    <row r="40" spans="1:106" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" s="108" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" s="85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40" s="35">
         <v>0</v>
@@ -5634,7 +7621,7 @@
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I40" s="44"/>
@@ -5693,10 +7680,52 @@
       <c r="BJ40" s="44"/>
       <c r="BK40" s="44"/>
       <c r="BL40" s="44"/>
-    </row>
-    <row r="41" spans="1:64" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM40" s="44"/>
+      <c r="BN40" s="44"/>
+      <c r="BO40" s="44"/>
+      <c r="BP40" s="44"/>
+      <c r="BQ40" s="44"/>
+      <c r="BR40" s="44"/>
+      <c r="BS40" s="44"/>
+      <c r="BT40" s="44"/>
+      <c r="BU40" s="44"/>
+      <c r="BV40" s="44"/>
+      <c r="BW40" s="44"/>
+      <c r="BX40" s="44"/>
+      <c r="BY40" s="44"/>
+      <c r="BZ40" s="44"/>
+      <c r="CA40" s="44"/>
+      <c r="CB40" s="44"/>
+      <c r="CC40" s="44"/>
+      <c r="CD40" s="44"/>
+      <c r="CE40" s="44"/>
+      <c r="CF40" s="44"/>
+      <c r="CG40" s="44"/>
+      <c r="CH40" s="44"/>
+      <c r="CI40" s="44"/>
+      <c r="CJ40" s="44"/>
+      <c r="CK40" s="44"/>
+      <c r="CL40" s="44"/>
+      <c r="CM40" s="44"/>
+      <c r="CN40" s="44"/>
+      <c r="CO40" s="44"/>
+      <c r="CP40" s="44"/>
+      <c r="CQ40" s="44"/>
+      <c r="CR40" s="44"/>
+      <c r="CS40" s="44"/>
+      <c r="CT40" s="44"/>
+      <c r="CU40" s="44"/>
+      <c r="CV40" s="44"/>
+      <c r="CW40" s="44"/>
+      <c r="CX40" s="44"/>
+      <c r="CY40" s="44"/>
+      <c r="CZ40" s="44"/>
+      <c r="DA40" s="44"/>
+      <c r="DB40" s="44"/>
+    </row>
+    <row r="41" spans="1:106" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B41" s="108"/>
       <c r="C41" s="85"/>
@@ -5711,7 +7740,7 @@
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="I41" s="44"/>
@@ -5770,10 +7799,52 @@
       <c r="BJ41" s="44"/>
       <c r="BK41" s="44"/>
       <c r="BL41" s="44"/>
-    </row>
-    <row r="42" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM41" s="44"/>
+      <c r="BN41" s="44"/>
+      <c r="BO41" s="44"/>
+      <c r="BP41" s="44"/>
+      <c r="BQ41" s="44"/>
+      <c r="BR41" s="44"/>
+      <c r="BS41" s="44"/>
+      <c r="BT41" s="44"/>
+      <c r="BU41" s="44"/>
+      <c r="BV41" s="44"/>
+      <c r="BW41" s="44"/>
+      <c r="BX41" s="44"/>
+      <c r="BY41" s="44"/>
+      <c r="BZ41" s="44"/>
+      <c r="CA41" s="44"/>
+      <c r="CB41" s="44"/>
+      <c r="CC41" s="44"/>
+      <c r="CD41" s="44"/>
+      <c r="CE41" s="44"/>
+      <c r="CF41" s="44"/>
+      <c r="CG41" s="44"/>
+      <c r="CH41" s="44"/>
+      <c r="CI41" s="44"/>
+      <c r="CJ41" s="44"/>
+      <c r="CK41" s="44"/>
+      <c r="CL41" s="44"/>
+      <c r="CM41" s="44"/>
+      <c r="CN41" s="44"/>
+      <c r="CO41" s="44"/>
+      <c r="CP41" s="44"/>
+      <c r="CQ41" s="44"/>
+      <c r="CR41" s="44"/>
+      <c r="CS41" s="44"/>
+      <c r="CT41" s="44"/>
+      <c r="CU41" s="44"/>
+      <c r="CV41" s="44"/>
+      <c r="CW41" s="44"/>
+      <c r="CX41" s="44"/>
+      <c r="CY41" s="44"/>
+      <c r="CZ41" s="44"/>
+      <c r="DA41" s="44"/>
+      <c r="DB41" s="44"/>
+    </row>
+    <row r="42" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B42" s="108"/>
       <c r="C42" s="85"/>
@@ -5788,7 +7859,7 @@
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="I42" s="44"/>
@@ -5847,14 +7918,56 @@
       <c r="BJ42" s="44"/>
       <c r="BK42" s="44"/>
       <c r="BL42" s="44"/>
-    </row>
-    <row r="43" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM42" s="44"/>
+      <c r="BN42" s="44"/>
+      <c r="BO42" s="44"/>
+      <c r="BP42" s="44"/>
+      <c r="BQ42" s="44"/>
+      <c r="BR42" s="44"/>
+      <c r="BS42" s="44"/>
+      <c r="BT42" s="44"/>
+      <c r="BU42" s="44"/>
+      <c r="BV42" s="44"/>
+      <c r="BW42" s="44"/>
+      <c r="BX42" s="44"/>
+      <c r="BY42" s="44"/>
+      <c r="BZ42" s="44"/>
+      <c r="CA42" s="44"/>
+      <c r="CB42" s="44"/>
+      <c r="CC42" s="44"/>
+      <c r="CD42" s="44"/>
+      <c r="CE42" s="44"/>
+      <c r="CF42" s="44"/>
+      <c r="CG42" s="44"/>
+      <c r="CH42" s="44"/>
+      <c r="CI42" s="44"/>
+      <c r="CJ42" s="44"/>
+      <c r="CK42" s="44"/>
+      <c r="CL42" s="44"/>
+      <c r="CM42" s="44"/>
+      <c r="CN42" s="44"/>
+      <c r="CO42" s="44"/>
+      <c r="CP42" s="44"/>
+      <c r="CQ42" s="44"/>
+      <c r="CR42" s="44"/>
+      <c r="CS42" s="44"/>
+      <c r="CT42" s="44"/>
+      <c r="CU42" s="44"/>
+      <c r="CV42" s="44"/>
+      <c r="CW42" s="44"/>
+      <c r="CX42" s="44"/>
+      <c r="CY42" s="44"/>
+      <c r="CZ42" s="44"/>
+      <c r="DA42" s="44"/>
+      <c r="DB42" s="44"/>
+    </row>
+    <row r="43" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B43" s="108"/>
       <c r="C43" s="85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" s="35">
         <v>0</v>
@@ -5867,7 +7980,7 @@
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I43" s="44"/>
@@ -5926,14 +8039,56 @@
       <c r="BJ43" s="44"/>
       <c r="BK43" s="44"/>
       <c r="BL43" s="44"/>
-    </row>
-    <row r="44" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM43" s="44"/>
+      <c r="BN43" s="44"/>
+      <c r="BO43" s="44"/>
+      <c r="BP43" s="44"/>
+      <c r="BQ43" s="44"/>
+      <c r="BR43" s="44"/>
+      <c r="BS43" s="44"/>
+      <c r="BT43" s="44"/>
+      <c r="BU43" s="44"/>
+      <c r="BV43" s="44"/>
+      <c r="BW43" s="44"/>
+      <c r="BX43" s="44"/>
+      <c r="BY43" s="44"/>
+      <c r="BZ43" s="44"/>
+      <c r="CA43" s="44"/>
+      <c r="CB43" s="44"/>
+      <c r="CC43" s="44"/>
+      <c r="CD43" s="44"/>
+      <c r="CE43" s="44"/>
+      <c r="CF43" s="44"/>
+      <c r="CG43" s="44"/>
+      <c r="CH43" s="44"/>
+      <c r="CI43" s="44"/>
+      <c r="CJ43" s="44"/>
+      <c r="CK43" s="44"/>
+      <c r="CL43" s="44"/>
+      <c r="CM43" s="44"/>
+      <c r="CN43" s="44"/>
+      <c r="CO43" s="44"/>
+      <c r="CP43" s="44"/>
+      <c r="CQ43" s="44"/>
+      <c r="CR43" s="44"/>
+      <c r="CS43" s="44"/>
+      <c r="CT43" s="44"/>
+      <c r="CU43" s="44"/>
+      <c r="CV43" s="44"/>
+      <c r="CW43" s="44"/>
+      <c r="CX43" s="44"/>
+      <c r="CY43" s="44"/>
+      <c r="CZ43" s="44"/>
+      <c r="DA43" s="44"/>
+      <c r="DB43" s="44"/>
+    </row>
+    <row r="44" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="73" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B44" s="108"/>
       <c r="C44" s="85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D44" s="35">
         <v>0</v>
@@ -5946,7 +8101,7 @@
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="I44" s="44"/>
@@ -6005,10 +8160,52 @@
       <c r="BJ44" s="44"/>
       <c r="BK44" s="44"/>
       <c r="BL44" s="44"/>
-    </row>
-    <row r="45" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM44" s="44"/>
+      <c r="BN44" s="44"/>
+      <c r="BO44" s="44"/>
+      <c r="BP44" s="44"/>
+      <c r="BQ44" s="44"/>
+      <c r="BR44" s="44"/>
+      <c r="BS44" s="44"/>
+      <c r="BT44" s="44"/>
+      <c r="BU44" s="44"/>
+      <c r="BV44" s="44"/>
+      <c r="BW44" s="44"/>
+      <c r="BX44" s="44"/>
+      <c r="BY44" s="44"/>
+      <c r="BZ44" s="44"/>
+      <c r="CA44" s="44"/>
+      <c r="CB44" s="44"/>
+      <c r="CC44" s="44"/>
+      <c r="CD44" s="44"/>
+      <c r="CE44" s="44"/>
+      <c r="CF44" s="44"/>
+      <c r="CG44" s="44"/>
+      <c r="CH44" s="44"/>
+      <c r="CI44" s="44"/>
+      <c r="CJ44" s="44"/>
+      <c r="CK44" s="44"/>
+      <c r="CL44" s="44"/>
+      <c r="CM44" s="44"/>
+      <c r="CN44" s="44"/>
+      <c r="CO44" s="44"/>
+      <c r="CP44" s="44"/>
+      <c r="CQ44" s="44"/>
+      <c r="CR44" s="44"/>
+      <c r="CS44" s="44"/>
+      <c r="CT44" s="44"/>
+      <c r="CU44" s="44"/>
+      <c r="CV44" s="44"/>
+      <c r="CW44" s="44"/>
+      <c r="CX44" s="44"/>
+      <c r="CY44" s="44"/>
+      <c r="CZ44" s="44"/>
+      <c r="DA44" s="44"/>
+      <c r="DB44" s="44"/>
+    </row>
+    <row r="45" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="74" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" s="109"/>
       <c r="C45" s="86"/>
@@ -6017,7 +8214,7 @@
       <c r="F45" s="40"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I45" s="44"/>
@@ -6076,16 +8273,58 @@
       <c r="BJ45" s="44"/>
       <c r="BK45" s="44"/>
       <c r="BL45" s="44"/>
-    </row>
-    <row r="46" spans="1:64" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM45" s="44"/>
+      <c r="BN45" s="44"/>
+      <c r="BO45" s="44"/>
+      <c r="BP45" s="44"/>
+      <c r="BQ45" s="44"/>
+      <c r="BR45" s="44"/>
+      <c r="BS45" s="44"/>
+      <c r="BT45" s="44"/>
+      <c r="BU45" s="44"/>
+      <c r="BV45" s="44"/>
+      <c r="BW45" s="44"/>
+      <c r="BX45" s="44"/>
+      <c r="BY45" s="44"/>
+      <c r="BZ45" s="44"/>
+      <c r="CA45" s="44"/>
+      <c r="CB45" s="44"/>
+      <c r="CC45" s="44"/>
+      <c r="CD45" s="44"/>
+      <c r="CE45" s="44"/>
+      <c r="CF45" s="44"/>
+      <c r="CG45" s="44"/>
+      <c r="CH45" s="44"/>
+      <c r="CI45" s="44"/>
+      <c r="CJ45" s="44"/>
+      <c r="CK45" s="44"/>
+      <c r="CL45" s="44"/>
+      <c r="CM45" s="44"/>
+      <c r="CN45" s="44"/>
+      <c r="CO45" s="44"/>
+      <c r="CP45" s="44"/>
+      <c r="CQ45" s="44"/>
+      <c r="CR45" s="44"/>
+      <c r="CS45" s="44"/>
+      <c r="CT45" s="44"/>
+      <c r="CU45" s="44"/>
+      <c r="CV45" s="44"/>
+      <c r="CW45" s="44"/>
+      <c r="CX45" s="44"/>
+      <c r="CY45" s="44"/>
+      <c r="CZ45" s="44"/>
+      <c r="DA45" s="44"/>
+      <c r="DB45" s="44"/>
+    </row>
+    <row r="46" spans="1:106" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="75" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="41">
         <v>0</v>
@@ -6098,7 +8337,7 @@
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I46" s="44"/>
@@ -6157,10 +8396,52 @@
       <c r="BJ46" s="44"/>
       <c r="BK46" s="44"/>
       <c r="BL46" s="44"/>
-    </row>
-    <row r="47" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM46" s="44"/>
+      <c r="BN46" s="44"/>
+      <c r="BO46" s="44"/>
+      <c r="BP46" s="44"/>
+      <c r="BQ46" s="44"/>
+      <c r="BR46" s="44"/>
+      <c r="BS46" s="44"/>
+      <c r="BT46" s="44"/>
+      <c r="BU46" s="44"/>
+      <c r="BV46" s="44"/>
+      <c r="BW46" s="44"/>
+      <c r="BX46" s="44"/>
+      <c r="BY46" s="44"/>
+      <c r="BZ46" s="44"/>
+      <c r="CA46" s="44"/>
+      <c r="CB46" s="44"/>
+      <c r="CC46" s="44"/>
+      <c r="CD46" s="44"/>
+      <c r="CE46" s="44"/>
+      <c r="CF46" s="44"/>
+      <c r="CG46" s="44"/>
+      <c r="CH46" s="44"/>
+      <c r="CI46" s="44"/>
+      <c r="CJ46" s="44"/>
+      <c r="CK46" s="44"/>
+      <c r="CL46" s="44"/>
+      <c r="CM46" s="44"/>
+      <c r="CN46" s="44"/>
+      <c r="CO46" s="44"/>
+      <c r="CP46" s="44"/>
+      <c r="CQ46" s="44"/>
+      <c r="CR46" s="44"/>
+      <c r="CS46" s="44"/>
+      <c r="CT46" s="44"/>
+      <c r="CU46" s="44"/>
+      <c r="CV46" s="44"/>
+      <c r="CW46" s="44"/>
+      <c r="CX46" s="44"/>
+      <c r="CY46" s="44"/>
+      <c r="CZ46" s="44"/>
+      <c r="DA46" s="44"/>
+      <c r="DB46" s="44"/>
+    </row>
+    <row r="47" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" s="110"/>
       <c r="C47" s="87"/>
@@ -6175,7 +8456,7 @@
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="I47" s="44"/>
@@ -6234,10 +8515,52 @@
       <c r="BJ47" s="44"/>
       <c r="BK47" s="44"/>
       <c r="BL47" s="44"/>
-    </row>
-    <row r="48" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM47" s="44"/>
+      <c r="BN47" s="44"/>
+      <c r="BO47" s="44"/>
+      <c r="BP47" s="44"/>
+      <c r="BQ47" s="44"/>
+      <c r="BR47" s="44"/>
+      <c r="BS47" s="44"/>
+      <c r="BT47" s="44"/>
+      <c r="BU47" s="44"/>
+      <c r="BV47" s="44"/>
+      <c r="BW47" s="44"/>
+      <c r="BX47" s="44"/>
+      <c r="BY47" s="44"/>
+      <c r="BZ47" s="44"/>
+      <c r="CA47" s="44"/>
+      <c r="CB47" s="44"/>
+      <c r="CC47" s="44"/>
+      <c r="CD47" s="44"/>
+      <c r="CE47" s="44"/>
+      <c r="CF47" s="44"/>
+      <c r="CG47" s="44"/>
+      <c r="CH47" s="44"/>
+      <c r="CI47" s="44"/>
+      <c r="CJ47" s="44"/>
+      <c r="CK47" s="44"/>
+      <c r="CL47" s="44"/>
+      <c r="CM47" s="44"/>
+      <c r="CN47" s="44"/>
+      <c r="CO47" s="44"/>
+      <c r="CP47" s="44"/>
+      <c r="CQ47" s="44"/>
+      <c r="CR47" s="44"/>
+      <c r="CS47" s="44"/>
+      <c r="CT47" s="44"/>
+      <c r="CU47" s="44"/>
+      <c r="CV47" s="44"/>
+      <c r="CW47" s="44"/>
+      <c r="CX47" s="44"/>
+      <c r="CY47" s="44"/>
+      <c r="CZ47" s="44"/>
+      <c r="DA47" s="44"/>
+      <c r="DB47" s="44"/>
+    </row>
+    <row r="48" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="75" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B48" s="110"/>
       <c r="C48" s="87"/>
@@ -6252,7 +8575,7 @@
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="I48" s="44"/>
@@ -6311,14 +8634,56 @@
       <c r="BJ48" s="44"/>
       <c r="BK48" s="44"/>
       <c r="BL48" s="44"/>
-    </row>
-    <row r="49" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM48" s="44"/>
+      <c r="BN48" s="44"/>
+      <c r="BO48" s="44"/>
+      <c r="BP48" s="44"/>
+      <c r="BQ48" s="44"/>
+      <c r="BR48" s="44"/>
+      <c r="BS48" s="44"/>
+      <c r="BT48" s="44"/>
+      <c r="BU48" s="44"/>
+      <c r="BV48" s="44"/>
+      <c r="BW48" s="44"/>
+      <c r="BX48" s="44"/>
+      <c r="BY48" s="44"/>
+      <c r="BZ48" s="44"/>
+      <c r="CA48" s="44"/>
+      <c r="CB48" s="44"/>
+      <c r="CC48" s="44"/>
+      <c r="CD48" s="44"/>
+      <c r="CE48" s="44"/>
+      <c r="CF48" s="44"/>
+      <c r="CG48" s="44"/>
+      <c r="CH48" s="44"/>
+      <c r="CI48" s="44"/>
+      <c r="CJ48" s="44"/>
+      <c r="CK48" s="44"/>
+      <c r="CL48" s="44"/>
+      <c r="CM48" s="44"/>
+      <c r="CN48" s="44"/>
+      <c r="CO48" s="44"/>
+      <c r="CP48" s="44"/>
+      <c r="CQ48" s="44"/>
+      <c r="CR48" s="44"/>
+      <c r="CS48" s="44"/>
+      <c r="CT48" s="44"/>
+      <c r="CU48" s="44"/>
+      <c r="CV48" s="44"/>
+      <c r="CW48" s="44"/>
+      <c r="CX48" s="44"/>
+      <c r="CY48" s="44"/>
+      <c r="CZ48" s="44"/>
+      <c r="DA48" s="44"/>
+      <c r="DB48" s="44"/>
+    </row>
+    <row r="49" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="75" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B49" s="110"/>
       <c r="C49" s="87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49" s="41">
         <v>0</v>
@@ -6331,7 +8696,7 @@
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I49" s="44"/>
@@ -6390,14 +8755,56 @@
       <c r="BJ49" s="44"/>
       <c r="BK49" s="44"/>
       <c r="BL49" s="44"/>
-    </row>
-    <row r="50" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM49" s="44"/>
+      <c r="BN49" s="44"/>
+      <c r="BO49" s="44"/>
+      <c r="BP49" s="44"/>
+      <c r="BQ49" s="44"/>
+      <c r="BR49" s="44"/>
+      <c r="BS49" s="44"/>
+      <c r="BT49" s="44"/>
+      <c r="BU49" s="44"/>
+      <c r="BV49" s="44"/>
+      <c r="BW49" s="44"/>
+      <c r="BX49" s="44"/>
+      <c r="BY49" s="44"/>
+      <c r="BZ49" s="44"/>
+      <c r="CA49" s="44"/>
+      <c r="CB49" s="44"/>
+      <c r="CC49" s="44"/>
+      <c r="CD49" s="44"/>
+      <c r="CE49" s="44"/>
+      <c r="CF49" s="44"/>
+      <c r="CG49" s="44"/>
+      <c r="CH49" s="44"/>
+      <c r="CI49" s="44"/>
+      <c r="CJ49" s="44"/>
+      <c r="CK49" s="44"/>
+      <c r="CL49" s="44"/>
+      <c r="CM49" s="44"/>
+      <c r="CN49" s="44"/>
+      <c r="CO49" s="44"/>
+      <c r="CP49" s="44"/>
+      <c r="CQ49" s="44"/>
+      <c r="CR49" s="44"/>
+      <c r="CS49" s="44"/>
+      <c r="CT49" s="44"/>
+      <c r="CU49" s="44"/>
+      <c r="CV49" s="44"/>
+      <c r="CW49" s="44"/>
+      <c r="CX49" s="44"/>
+      <c r="CY49" s="44"/>
+      <c r="CZ49" s="44"/>
+      <c r="DA49" s="44"/>
+      <c r="DB49" s="44"/>
+    </row>
+    <row r="50" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B50" s="110"/>
       <c r="C50" s="87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D50" s="41">
         <v>0</v>
@@ -6410,7 +8817,7 @@
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="I50" s="44"/>
@@ -6469,10 +8876,52 @@
       <c r="BJ50" s="44"/>
       <c r="BK50" s="44"/>
       <c r="BL50" s="44"/>
-    </row>
-    <row r="51" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM50" s="44"/>
+      <c r="BN50" s="44"/>
+      <c r="BO50" s="44"/>
+      <c r="BP50" s="44"/>
+      <c r="BQ50" s="44"/>
+      <c r="BR50" s="44"/>
+      <c r="BS50" s="44"/>
+      <c r="BT50" s="44"/>
+      <c r="BU50" s="44"/>
+      <c r="BV50" s="44"/>
+      <c r="BW50" s="44"/>
+      <c r="BX50" s="44"/>
+      <c r="BY50" s="44"/>
+      <c r="BZ50" s="44"/>
+      <c r="CA50" s="44"/>
+      <c r="CB50" s="44"/>
+      <c r="CC50" s="44"/>
+      <c r="CD50" s="44"/>
+      <c r="CE50" s="44"/>
+      <c r="CF50" s="44"/>
+      <c r="CG50" s="44"/>
+      <c r="CH50" s="44"/>
+      <c r="CI50" s="44"/>
+      <c r="CJ50" s="44"/>
+      <c r="CK50" s="44"/>
+      <c r="CL50" s="44"/>
+      <c r="CM50" s="44"/>
+      <c r="CN50" s="44"/>
+      <c r="CO50" s="44"/>
+      <c r="CP50" s="44"/>
+      <c r="CQ50" s="44"/>
+      <c r="CR50" s="44"/>
+      <c r="CS50" s="44"/>
+      <c r="CT50" s="44"/>
+      <c r="CU50" s="44"/>
+      <c r="CV50" s="44"/>
+      <c r="CW50" s="44"/>
+      <c r="CX50" s="44"/>
+      <c r="CY50" s="44"/>
+      <c r="CZ50" s="44"/>
+      <c r="DA50" s="44"/>
+      <c r="DB50" s="44"/>
+    </row>
+    <row r="51" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B51" s="111"/>
       <c r="C51" s="90"/>
@@ -6481,7 +8930,7 @@
       <c r="F51" s="93"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I51" s="44"/>
@@ -6540,16 +8989,58 @@
       <c r="BJ51" s="44"/>
       <c r="BK51" s="44"/>
       <c r="BL51" s="44"/>
-    </row>
-    <row r="52" spans="1:64" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM51" s="44"/>
+      <c r="BN51" s="44"/>
+      <c r="BO51" s="44"/>
+      <c r="BP51" s="44"/>
+      <c r="BQ51" s="44"/>
+      <c r="BR51" s="44"/>
+      <c r="BS51" s="44"/>
+      <c r="BT51" s="44"/>
+      <c r="BU51" s="44"/>
+      <c r="BV51" s="44"/>
+      <c r="BW51" s="44"/>
+      <c r="BX51" s="44"/>
+      <c r="BY51" s="44"/>
+      <c r="BZ51" s="44"/>
+      <c r="CA51" s="44"/>
+      <c r="CB51" s="44"/>
+      <c r="CC51" s="44"/>
+      <c r="CD51" s="44"/>
+      <c r="CE51" s="44"/>
+      <c r="CF51" s="44"/>
+      <c r="CG51" s="44"/>
+      <c r="CH51" s="44"/>
+      <c r="CI51" s="44"/>
+      <c r="CJ51" s="44"/>
+      <c r="CK51" s="44"/>
+      <c r="CL51" s="44"/>
+      <c r="CM51" s="44"/>
+      <c r="CN51" s="44"/>
+      <c r="CO51" s="44"/>
+      <c r="CP51" s="44"/>
+      <c r="CQ51" s="44"/>
+      <c r="CR51" s="44"/>
+      <c r="CS51" s="44"/>
+      <c r="CT51" s="44"/>
+      <c r="CU51" s="44"/>
+      <c r="CV51" s="44"/>
+      <c r="CW51" s="44"/>
+      <c r="CX51" s="44"/>
+      <c r="CY51" s="44"/>
+      <c r="CZ51" s="44"/>
+      <c r="DA51" s="44"/>
+      <c r="DB51" s="44"/>
+    </row>
+    <row r="52" spans="1:106" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="94" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B52" s="112" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C52" s="95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D52" s="96">
         <v>0</v>
@@ -6562,7 +9053,7 @@
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I52" s="44"/>
@@ -6621,10 +9112,52 @@
       <c r="BJ52" s="44"/>
       <c r="BK52" s="44"/>
       <c r="BL52" s="44"/>
-    </row>
-    <row r="53" spans="1:64" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM52" s="44"/>
+      <c r="BN52" s="44"/>
+      <c r="BO52" s="44"/>
+      <c r="BP52" s="44"/>
+      <c r="BQ52" s="44"/>
+      <c r="BR52" s="44"/>
+      <c r="BS52" s="44"/>
+      <c r="BT52" s="44"/>
+      <c r="BU52" s="44"/>
+      <c r="BV52" s="44"/>
+      <c r="BW52" s="44"/>
+      <c r="BX52" s="44"/>
+      <c r="BY52" s="44"/>
+      <c r="BZ52" s="44"/>
+      <c r="CA52" s="44"/>
+      <c r="CB52" s="44"/>
+      <c r="CC52" s="44"/>
+      <c r="CD52" s="44"/>
+      <c r="CE52" s="44"/>
+      <c r="CF52" s="44"/>
+      <c r="CG52" s="44"/>
+      <c r="CH52" s="44"/>
+      <c r="CI52" s="44"/>
+      <c r="CJ52" s="44"/>
+      <c r="CK52" s="44"/>
+      <c r="CL52" s="44"/>
+      <c r="CM52" s="44"/>
+      <c r="CN52" s="44"/>
+      <c r="CO52" s="44"/>
+      <c r="CP52" s="44"/>
+      <c r="CQ52" s="44"/>
+      <c r="CR52" s="44"/>
+      <c r="CS52" s="44"/>
+      <c r="CT52" s="44"/>
+      <c r="CU52" s="44"/>
+      <c r="CV52" s="44"/>
+      <c r="CW52" s="44"/>
+      <c r="CX52" s="44"/>
+      <c r="CY52" s="44"/>
+      <c r="CZ52" s="44"/>
+      <c r="DA52" s="44"/>
+      <c r="DB52" s="44"/>
+    </row>
+    <row r="53" spans="1:106" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="94" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" s="112"/>
       <c r="C53" s="95"/>
@@ -6639,7 +9172,7 @@
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="I53" s="44"/>
@@ -6698,10 +9231,52 @@
       <c r="BJ53" s="44"/>
       <c r="BK53" s="44"/>
       <c r="BL53" s="44"/>
-    </row>
-    <row r="54" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM53" s="44"/>
+      <c r="BN53" s="44"/>
+      <c r="BO53" s="44"/>
+      <c r="BP53" s="44"/>
+      <c r="BQ53" s="44"/>
+      <c r="BR53" s="44"/>
+      <c r="BS53" s="44"/>
+      <c r="BT53" s="44"/>
+      <c r="BU53" s="44"/>
+      <c r="BV53" s="44"/>
+      <c r="BW53" s="44"/>
+      <c r="BX53" s="44"/>
+      <c r="BY53" s="44"/>
+      <c r="BZ53" s="44"/>
+      <c r="CA53" s="44"/>
+      <c r="CB53" s="44"/>
+      <c r="CC53" s="44"/>
+      <c r="CD53" s="44"/>
+      <c r="CE53" s="44"/>
+      <c r="CF53" s="44"/>
+      <c r="CG53" s="44"/>
+      <c r="CH53" s="44"/>
+      <c r="CI53" s="44"/>
+      <c r="CJ53" s="44"/>
+      <c r="CK53" s="44"/>
+      <c r="CL53" s="44"/>
+      <c r="CM53" s="44"/>
+      <c r="CN53" s="44"/>
+      <c r="CO53" s="44"/>
+      <c r="CP53" s="44"/>
+      <c r="CQ53" s="44"/>
+      <c r="CR53" s="44"/>
+      <c r="CS53" s="44"/>
+      <c r="CT53" s="44"/>
+      <c r="CU53" s="44"/>
+      <c r="CV53" s="44"/>
+      <c r="CW53" s="44"/>
+      <c r="CX53" s="44"/>
+      <c r="CY53" s="44"/>
+      <c r="CZ53" s="44"/>
+      <c r="DA53" s="44"/>
+      <c r="DB53" s="44"/>
+    </row>
+    <row r="54" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="94" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B54" s="112"/>
       <c r="C54" s="95"/>
@@ -6716,7 +9291,7 @@
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="I54" s="44"/>
@@ -6775,14 +9350,56 @@
       <c r="BJ54" s="44"/>
       <c r="BK54" s="44"/>
       <c r="BL54" s="44"/>
-    </row>
-    <row r="55" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM54" s="44"/>
+      <c r="BN54" s="44"/>
+      <c r="BO54" s="44"/>
+      <c r="BP54" s="44"/>
+      <c r="BQ54" s="44"/>
+      <c r="BR54" s="44"/>
+      <c r="BS54" s="44"/>
+      <c r="BT54" s="44"/>
+      <c r="BU54" s="44"/>
+      <c r="BV54" s="44"/>
+      <c r="BW54" s="44"/>
+      <c r="BX54" s="44"/>
+      <c r="BY54" s="44"/>
+      <c r="BZ54" s="44"/>
+      <c r="CA54" s="44"/>
+      <c r="CB54" s="44"/>
+      <c r="CC54" s="44"/>
+      <c r="CD54" s="44"/>
+      <c r="CE54" s="44"/>
+      <c r="CF54" s="44"/>
+      <c r="CG54" s="44"/>
+      <c r="CH54" s="44"/>
+      <c r="CI54" s="44"/>
+      <c r="CJ54" s="44"/>
+      <c r="CK54" s="44"/>
+      <c r="CL54" s="44"/>
+      <c r="CM54" s="44"/>
+      <c r="CN54" s="44"/>
+      <c r="CO54" s="44"/>
+      <c r="CP54" s="44"/>
+      <c r="CQ54" s="44"/>
+      <c r="CR54" s="44"/>
+      <c r="CS54" s="44"/>
+      <c r="CT54" s="44"/>
+      <c r="CU54" s="44"/>
+      <c r="CV54" s="44"/>
+      <c r="CW54" s="44"/>
+      <c r="CX54" s="44"/>
+      <c r="CY54" s="44"/>
+      <c r="CZ54" s="44"/>
+      <c r="DA54" s="44"/>
+      <c r="DB54" s="44"/>
+    </row>
+    <row r="55" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="94" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D55" s="96">
         <v>0</v>
@@ -6795,7 +9412,7 @@
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I55" s="44"/>
@@ -6854,14 +9471,56 @@
       <c r="BJ55" s="44"/>
       <c r="BK55" s="44"/>
       <c r="BL55" s="44"/>
-    </row>
-    <row r="56" spans="1:64" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM55" s="44"/>
+      <c r="BN55" s="44"/>
+      <c r="BO55" s="44"/>
+      <c r="BP55" s="44"/>
+      <c r="BQ55" s="44"/>
+      <c r="BR55" s="44"/>
+      <c r="BS55" s="44"/>
+      <c r="BT55" s="44"/>
+      <c r="BU55" s="44"/>
+      <c r="BV55" s="44"/>
+      <c r="BW55" s="44"/>
+      <c r="BX55" s="44"/>
+      <c r="BY55" s="44"/>
+      <c r="BZ55" s="44"/>
+      <c r="CA55" s="44"/>
+      <c r="CB55" s="44"/>
+      <c r="CC55" s="44"/>
+      <c r="CD55" s="44"/>
+      <c r="CE55" s="44"/>
+      <c r="CF55" s="44"/>
+      <c r="CG55" s="44"/>
+      <c r="CH55" s="44"/>
+      <c r="CI55" s="44"/>
+      <c r="CJ55" s="44"/>
+      <c r="CK55" s="44"/>
+      <c r="CL55" s="44"/>
+      <c r="CM55" s="44"/>
+      <c r="CN55" s="44"/>
+      <c r="CO55" s="44"/>
+      <c r="CP55" s="44"/>
+      <c r="CQ55" s="44"/>
+      <c r="CR55" s="44"/>
+      <c r="CS55" s="44"/>
+      <c r="CT55" s="44"/>
+      <c r="CU55" s="44"/>
+      <c r="CV55" s="44"/>
+      <c r="CW55" s="44"/>
+      <c r="CX55" s="44"/>
+      <c r="CY55" s="44"/>
+      <c r="CZ55" s="44"/>
+      <c r="DA55" s="44"/>
+      <c r="DB55" s="44"/>
+    </row>
+    <row r="56" spans="1:106" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="94" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B56" s="112"/>
       <c r="C56" s="95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D56" s="96">
         <v>0</v>
@@ -6874,7 +9533,7 @@
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I56" s="44"/>
@@ -6933,28 +9592,76 @@
       <c r="BJ56" s="44"/>
       <c r="BK56" s="44"/>
       <c r="BL56" s="44"/>
-    </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM56" s="44"/>
+      <c r="BN56" s="44"/>
+      <c r="BO56" s="44"/>
+      <c r="BP56" s="44"/>
+      <c r="BQ56" s="44"/>
+      <c r="BR56" s="44"/>
+      <c r="BS56" s="44"/>
+      <c r="BT56" s="44"/>
+      <c r="BU56" s="44"/>
+      <c r="BV56" s="44"/>
+      <c r="BW56" s="44"/>
+      <c r="BX56" s="44"/>
+      <c r="BY56" s="44"/>
+      <c r="BZ56" s="44"/>
+      <c r="CA56" s="44"/>
+      <c r="CB56" s="44"/>
+      <c r="CC56" s="44"/>
+      <c r="CD56" s="44"/>
+      <c r="CE56" s="44"/>
+      <c r="CF56" s="44"/>
+      <c r="CG56" s="44"/>
+      <c r="CH56" s="44"/>
+      <c r="CI56" s="44"/>
+      <c r="CJ56" s="44"/>
+      <c r="CK56" s="44"/>
+      <c r="CL56" s="44"/>
+      <c r="CM56" s="44"/>
+      <c r="CN56" s="44"/>
+      <c r="CO56" s="44"/>
+      <c r="CP56" s="44"/>
+      <c r="CQ56" s="44"/>
+      <c r="CR56" s="44"/>
+      <c r="CS56" s="44"/>
+      <c r="CT56" s="44"/>
+      <c r="CU56" s="44"/>
+      <c r="CV56" s="44"/>
+      <c r="CW56" s="44"/>
+      <c r="CX56" s="44"/>
+      <c r="CY56" s="44"/>
+      <c r="CZ56" s="44"/>
+      <c r="DA56" s="44"/>
+      <c r="DB56" s="44"/>
+    </row>
+    <row r="57" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A57" s="76"/>
       <c r="B57" s="101"/>
       <c r="C57" s="88"/>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A58" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="J1:AA1"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J1:AA1"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:D20 D26 D7 D28:D32 D34:D39 D41:D45 D47:D51 D53:D56">
     <cfRule type="dataBar" priority="119">
@@ -6970,17 +9677,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL20 I25:BL26 I7:BL8 I28:BL32 I34:BL39 I41:BL45 I47:BL51 I53:BL56">
-    <cfRule type="expression" dxfId="50" priority="132">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+  <conditionalFormatting sqref="I17:DB20 I14:DB15 I7:DB12 I22:DB22 G13:DB13 G16:DB16 G21:DB21 G23:DB24 I25:DB56">
+    <cfRule type="expression" dxfId="2" priority="132">
+      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="133" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
+    <cfRule type="expression" dxfId="1" priority="133" stopIfTrue="1">
+      <formula>AND(task_end&gt;=G$5,task_start&lt;G$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL20 I25:BL26 I5:BL8 I28:BL32 I34:BL39 I41:BL45 I47:BL51 I53:BL56">
-    <cfRule type="expression" dxfId="48" priority="134">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
+  <conditionalFormatting sqref="I17:DB20 I5:DB12 I14:DB15 I22:DB22 G13:DB13 G16:DB16 G21:DB21 G23:DB24 I25:DB56">
+    <cfRule type="expression" dxfId="0" priority="134">
+      <formula>AND(today&gt;=G$5,today&lt;G$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
@@ -6995,19 +9702,6 @@
           <x14:id>{E0CE8A0F-0B66-47B0-8201-7463B06AA198}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:BL9">
-    <cfRule type="expression" dxfId="47" priority="105">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="106" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:BL9">
-    <cfRule type="expression" dxfId="45" priority="107">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
@@ -7080,19 +9774,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BL10 I12:BL12">
-    <cfRule type="expression" dxfId="44" priority="81">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="82" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BL10 I12:BL12">
-    <cfRule type="expression" dxfId="42" priority="83">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
     <cfRule type="dataBar" priority="79">
       <dataBar>
@@ -7105,19 +9786,6 @@
           <x14:id>{796BE19E-3F47-4E11-959B-FAEA84149FC1}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:BL14">
-    <cfRule type="expression" dxfId="41" priority="76">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="77" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:BL14">
-    <cfRule type="expression" dxfId="39" priority="78">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
@@ -7148,32 +9816,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="38" priority="72">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="73" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="36" priority="74">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:BL11">
-    <cfRule type="expression" dxfId="35" priority="67">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="68" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:BL11">
-    <cfRule type="expression" dxfId="33" priority="69">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D11">
     <cfRule type="dataBar" priority="66">
       <dataBar>
@@ -7202,19 +9844,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="32" priority="59">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="60" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="30" priority="61">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D8">
     <cfRule type="dataBar" priority="57">
       <dataBar>
@@ -7227,58 +9856,6 @@
           <x14:id>{CA70AD7B-8B10-4D05-8CF6-6645C960CD0C}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:BL24">
-    <cfRule type="expression" dxfId="29" priority="45">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="46" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;G$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:BL13">
-    <cfRule type="expression" dxfId="27" priority="54">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="55" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;G$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:BL13">
-    <cfRule type="expression" dxfId="25" priority="56">
-      <formula>AND(today&gt;=G$5,today&lt;G$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:BL16">
-    <cfRule type="expression" dxfId="24" priority="51">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="52" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;G$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:BL16">
-    <cfRule type="expression" dxfId="22" priority="53">
-      <formula>AND(today&gt;=G$5,today&lt;G$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:BL21">
-    <cfRule type="expression" dxfId="21" priority="48">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="49" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;G$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:BL21">
-    <cfRule type="expression" dxfId="19" priority="50">
-      <formula>AND(today&gt;=G$5,today&lt;G$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:BL24">
-    <cfRule type="expression" dxfId="18" priority="47">
-      <formula>AND(today&gt;=G$5,today&lt;G$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
@@ -7295,19 +9872,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:BL23">
-    <cfRule type="expression" dxfId="17" priority="41">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="42" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;G$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:BL23">
-    <cfRule type="expression" dxfId="15" priority="43">
-      <formula>AND(today&gt;=G$5,today&lt;G$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D27">
     <cfRule type="dataBar" priority="33">
       <dataBar>
@@ -7322,32 +9886,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="14" priority="34">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="35" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="12" priority="36">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="11" priority="26">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="27" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="9" priority="28">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D33">
     <cfRule type="dataBar" priority="25">
       <dataBar>
@@ -7360,32 +9898,6 @@
           <x14:id>{7BD5200B-FA0C-4375-8AFA-040C11B4FCBE}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
@@ -7428,19 +9940,6 @@
           <x14:id>{80C0D26F-78FE-4735-A16B-18D911EBA76B}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;I$5+1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:BL46">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -7752,7 +10251,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7764,23 +10263,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="62" t="s">
-        <v>31</v>
-      </c>
+      <c r="A1" s="62"/>
       <c r="B1" s="116"/>
       <c r="C1" s="78"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="63"/>
       <c r="B2" s="117"/>
       <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="63"/>
       <c r="B3" s="117"/>
       <c r="C3" s="64"/>
     </row>
@@ -7791,22 +10284,22 @@
     </row>
     <row r="5" spans="1:14" s="123" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="C5" s="122" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="122" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="122" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="122" t="s">
-        <v>77</v>
       </c>
       <c r="G5" s="122"/>
       <c r="H5" s="122"/>
@@ -7819,7 +10312,7 @@
     </row>
     <row r="6" spans="1:14" s="123" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
@@ -7837,13 +10330,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="115" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="118">
         <v>1</v>
       </c>
       <c r="C7" s="118" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="120">
         <v>10</v>
@@ -7865,7 +10358,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="118">
         <v>2</v>
@@ -7893,13 +10386,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="115" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="118">
         <v>3</v>
       </c>
       <c r="C9" s="120" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="120">
         <v>10</v>
@@ -7921,13 +10414,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="118">
         <v>4</v>
       </c>
       <c r="C10" s="120" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="120">
         <v>3</v>
@@ -7949,7 +10442,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="118">
         <v>5</v>
@@ -7977,7 +10470,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="115" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="118">
         <v>6</v>
@@ -8005,7 +10498,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="118">
         <v>7</v>
@@ -8033,7 +10526,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="115" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="118">
         <v>8</v>
@@ -8061,7 +10554,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="115" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="118">
         <v>9</v>
@@ -8089,7 +10582,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="115" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="118">
         <v>10</v>
@@ -8117,13 +10610,13 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="115" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" s="118">
         <v>11</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="120">
         <v>3</v>
@@ -8145,7 +10638,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
@@ -8163,7 +10656,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="118">
         <v>12</v>
@@ -8191,7 +10684,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="118">
         <v>13</v>
@@ -8219,13 +10712,13 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B21" s="118">
         <v>14</v>
       </c>
       <c r="C21" s="120" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" s="120">
         <v>3</v>
@@ -8247,7 +10740,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
@@ -8265,7 +10758,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="118">
         <v>15</v>
@@ -8293,13 +10786,13 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="71" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="120">
         <v>16</v>
       </c>
-      <c r="C24" s="130" t="s">
-        <v>99</v>
+      <c r="C24" s="124" t="s">
+        <v>96</v>
       </c>
       <c r="D24" s="120">
         <v>5</v>
@@ -8321,7 +10814,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" s="118">
         <v>17</v>
@@ -8349,13 +10842,13 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B26" s="120">
         <v>18</v>
       </c>
-      <c r="C26" s="130" t="s">
-        <v>101</v>
+      <c r="C26" s="124" t="s">
+        <v>98</v>
       </c>
       <c r="D26" s="120">
         <v>3</v>
@@ -8377,7 +10870,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="72" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -8395,7 +10888,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B28" s="120">
         <v>19</v>
@@ -8423,7 +10916,7 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="120">
         <v>20</v>
@@ -8451,13 +10944,13 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="73" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B30" s="120">
         <v>21</v>
       </c>
-      <c r="C30" s="130" t="s">
-        <v>100</v>
+      <c r="C30" s="124" t="s">
+        <v>97</v>
       </c>
       <c r="D30" s="120">
         <v>3</v>
@@ -8479,7 +10972,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="74" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
@@ -8497,13 +10990,13 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="120">
         <v>22</v>
       </c>
-      <c r="C32" s="130" t="s">
-        <v>103</v>
+      <c r="C32" s="124" t="s">
+        <v>100</v>
       </c>
       <c r="D32" s="120">
         <v>5</v>
@@ -8525,13 +11018,13 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="75" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33" s="120">
         <v>23</v>
       </c>
-      <c r="C33" s="130" t="s">
-        <v>100</v>
+      <c r="C33" s="124" t="s">
+        <v>97</v>
       </c>
       <c r="D33" s="120">
         <v>14</v>
@@ -8553,13 +11046,13 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B34" s="120">
         <v>24</v>
       </c>
-      <c r="C34" s="130" t="s">
-        <v>102</v>
+      <c r="C34" s="124" t="s">
+        <v>99</v>
       </c>
       <c r="D34" s="120">
         <v>3</v>
@@ -8581,7 +11074,7 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B35" s="89"/>
       <c r="C35" s="89"/>
@@ -8599,13 +11092,13 @@
     </row>
     <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="94" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B36" s="120">
         <v>25</v>
       </c>
-      <c r="C36" s="130" t="s">
-        <v>91</v>
+      <c r="C36" s="124" t="s">
+        <v>88</v>
       </c>
       <c r="D36" s="120">
         <v>3</v>
@@ -8627,7 +11120,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="94" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="120">
         <v>26</v>
@@ -8655,13 +11148,13 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="94" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B38" s="120">
         <v>27</v>
       </c>
-      <c r="C38" s="130" t="s">
-        <v>104</v>
+      <c r="C38" s="124" t="s">
+        <v>101</v>
       </c>
       <c r="D38" s="120">
         <v>3</v>
@@ -8684,233 +11177,455 @@
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4936F3-3B0B-4E5B-97CB-586A1EC10BCA}">
-  <dimension ref="A1:BJ8"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="11" width="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="62" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="141" customWidth="1"/>
+    <col min="2" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="43" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="152"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="152"/>
+      <c r="AJ1" s="152"/>
+      <c r="AK1" s="152"/>
+      <c r="AL1" s="152"/>
+      <c r="AM1" s="152"/>
+      <c r="AN1" s="152"/>
+      <c r="AO1" s="152"/>
+      <c r="AP1" s="152"/>
+      <c r="AQ1" s="152"/>
+    </row>
+    <row r="2" spans="1:43" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="151"/>
+      <c r="B2" s="133">
+        <v>44256</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="133">
+        <v>44263</v>
+      </c>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="139">
+        <v>44270</v>
+      </c>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="139">
+        <v>44277</v>
+      </c>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="139">
+        <v>44284</v>
+      </c>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="133"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="139">
+        <v>44291</v>
+      </c>
+      <c r="AL2" s="133"/>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="136"/>
+    </row>
+    <row r="3" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="151"/>
+      <c r="B3" s="137">
+        <v>1</v>
+      </c>
+      <c r="C3" s="137">
+        <v>2</v>
+      </c>
+      <c r="D3" s="137">
+        <v>3</v>
+      </c>
+      <c r="E3" s="137">
+        <v>4</v>
+      </c>
+      <c r="F3" s="137">
+        <v>5</v>
+      </c>
+      <c r="G3" s="137">
+        <v>6</v>
+      </c>
+      <c r="H3" s="138">
+        <v>7</v>
+      </c>
+      <c r="I3" s="137">
+        <v>8</v>
+      </c>
+      <c r="J3" s="137">
+        <v>9</v>
+      </c>
+      <c r="K3" s="137">
+        <v>10</v>
+      </c>
+      <c r="L3" s="137">
+        <v>11</v>
+      </c>
+      <c r="M3" s="137">
+        <v>12</v>
+      </c>
+      <c r="N3" s="137">
+        <v>13</v>
+      </c>
+      <c r="O3" s="138">
+        <v>14</v>
+      </c>
+      <c r="P3" s="140">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="137">
+        <v>16</v>
+      </c>
+      <c r="R3" s="137">
+        <v>17</v>
+      </c>
+      <c r="S3" s="137">
+        <v>18</v>
+      </c>
+      <c r="T3" s="137">
+        <v>19</v>
+      </c>
+      <c r="U3" s="137">
+        <v>20</v>
+      </c>
+      <c r="V3" s="138">
+        <v>21</v>
+      </c>
+      <c r="W3" s="140">
+        <v>22</v>
+      </c>
+      <c r="X3" s="137">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="137">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="137">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="137">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="137">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="138">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="140">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="137">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="137">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8">
-        <v>7</v>
-      </c>
-      <c r="J4" s="8">
-        <v>8</v>
-      </c>
-      <c r="K4" s="8">
-        <v>9</v>
-      </c>
-      <c r="L4" s="8">
-        <v>10</v>
-      </c>
-      <c r="M4" s="8">
-        <v>11</v>
-      </c>
-      <c r="N4" s="8">
-        <v>12</v>
-      </c>
-      <c r="O4" s="8">
-        <v>13</v>
-      </c>
-      <c r="P4" s="8">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>15</v>
-      </c>
-      <c r="R4" s="8">
-        <v>16</v>
-      </c>
-      <c r="S4" s="8">
-        <v>17</v>
-      </c>
-      <c r="T4" s="8">
-        <v>18</v>
-      </c>
-      <c r="U4" s="8">
-        <v>19</v>
-      </c>
-      <c r="V4" s="8">
-        <v>20</v>
-      </c>
-      <c r="W4" s="8">
-        <v>21</v>
-      </c>
-      <c r="X4" s="8">
-        <v>22</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>23</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>24</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>25</v>
-      </c>
-      <c r="AB4" s="8">
+      <c r="AG3" s="137">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="137">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="137">
+        <v>34</v>
+      </c>
+      <c r="AJ3" s="138">
+        <v>35</v>
+      </c>
+      <c r="AK3" s="140">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="137">
+        <v>37</v>
+      </c>
+      <c r="AM3" s="137">
+        <v>38</v>
+      </c>
+      <c r="AN3" s="137">
+        <v>39</v>
+      </c>
+      <c r="AO3" s="137">
+        <v>40</v>
+      </c>
+      <c r="AP3" s="137">
+        <v>41</v>
+      </c>
+      <c r="AQ3" s="138">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="153"/>
+      <c r="B4" s="8" t="str">
+        <f>LEFT(TEXT(B2,"ηηη"),1)</f>
+        <v>Δ</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>LEFT(TEXT(C3+1,"ηηη"),1)</f>
+        <v>Τ</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f t="shared" ref="D4:AQ4" si="0">LEFT(TEXT(D3+1,"ηηη"),1)</f>
+        <v>Τ</v>
+      </c>
+      <c r="E4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="G4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Σ</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Κ</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Δ</v>
+      </c>
+      <c r="J4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Τ</v>
+      </c>
+      <c r="K4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Τ</v>
+      </c>
+      <c r="L4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="M4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="N4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Σ</v>
+      </c>
+      <c r="O4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Κ</v>
+      </c>
+      <c r="P4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Δ</v>
+      </c>
+      <c r="Q4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Τ</v>
+      </c>
+      <c r="R4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Τ</v>
+      </c>
+      <c r="S4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="T4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="U4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Σ</v>
+      </c>
+      <c r="V4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Κ</v>
+      </c>
+      <c r="W4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Δ</v>
+      </c>
+      <c r="X4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Τ</v>
+      </c>
+      <c r="Y4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Τ</v>
+      </c>
+      <c r="Z4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="AA4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="AB4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Σ</v>
+      </c>
+      <c r="AC4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Κ</v>
+      </c>
+      <c r="AD4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Δ</v>
+      </c>
+      <c r="AE4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Τ</v>
+      </c>
+      <c r="AF4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Τ</v>
+      </c>
+      <c r="AG4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="AH4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="AI4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Σ</v>
+      </c>
+      <c r="AJ4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Κ</v>
+      </c>
+      <c r="AK4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Δ</v>
+      </c>
+      <c r="AL4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Τ</v>
+      </c>
+      <c r="AM4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Τ</v>
+      </c>
+      <c r="AN4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="AO4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Π</v>
+      </c>
+      <c r="AP4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Σ</v>
+      </c>
+      <c r="AQ4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Κ</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="8">
-        <v>27</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>28</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>29</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>30</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>31</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>32</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>33</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>34</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>35</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>36</v>
-      </c>
-      <c r="AM4" s="8">
-        <v>37</v>
-      </c>
-      <c r="AN4" s="8">
-        <v>38</v>
-      </c>
-      <c r="AO4" s="8">
-        <v>39</v>
-      </c>
-      <c r="AP4" s="8">
-        <v>40</v>
-      </c>
-      <c r="AQ4" s="8">
-        <v>41</v>
-      </c>
-      <c r="AR4" s="8">
-        <v>42</v>
-      </c>
-      <c r="AS4" s="8">
-        <v>43</v>
-      </c>
-      <c r="AT4" s="8">
-        <v>44</v>
-      </c>
-      <c r="AU4" s="8">
-        <v>45</v>
-      </c>
-      <c r="AV4" s="8">
-        <v>46</v>
-      </c>
-      <c r="AW4" s="8">
-        <v>47</v>
-      </c>
-      <c r="AX4" s="8">
-        <v>48</v>
-      </c>
-      <c r="AY4" s="8">
-        <v>49</v>
-      </c>
-      <c r="AZ4" s="8">
-        <v>50</v>
-      </c>
-      <c r="BA4" s="8">
-        <v>51</v>
-      </c>
-      <c r="BB4" s="8">
-        <v>52</v>
-      </c>
-      <c r="BC4" s="8">
-        <v>53</v>
-      </c>
-      <c r="BD4" s="8">
-        <v>54</v>
-      </c>
-      <c r="BE4" s="8">
-        <v>55</v>
-      </c>
-      <c r="BF4" s="8">
-        <v>56</v>
-      </c>
-      <c r="BG4" s="8">
-        <v>57</v>
-      </c>
-      <c r="BH4" s="8">
-        <v>58</v>
-      </c>
-      <c r="BI4" s="8">
-        <v>59</v>
-      </c>
-      <c r="BJ4" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
+      <c r="B5" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="135" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
       <c r="S5" s="61"/>
       <c r="T5" s="61"/>
       <c r="U5" s="61"/>
@@ -8936,54 +11651,39 @@
       <c r="AO5" s="61"/>
       <c r="AP5" s="61"/>
       <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="61"/>
-      <c r="AV5" s="61"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="61"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="61"/>
-      <c r="BG5" s="61"/>
-      <c r="BH5" s="61"/>
-      <c r="BI5" s="61"/>
-      <c r="BJ5" s="61"/>
-    </row>
-    <row r="6" spans="1:62" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
-        <v>29</v>
+    </row>
+    <row r="6" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="142" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="F6" s="131" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
       <c r="O6" s="61"/>
       <c r="P6" s="61"/>
       <c r="Q6" s="61"/>
       <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
+      <c r="S6" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
       <c r="Z6" s="61"/>
       <c r="AA6" s="61"/>
       <c r="AB6" s="61"/>
@@ -8994,51 +11694,38 @@
       <c r="AG6" s="61"/>
       <c r="AH6" s="61"/>
       <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
+      <c r="AJ6" s="135" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135"/>
       <c r="AM6" s="61"/>
       <c r="AN6" s="61"/>
       <c r="AO6" s="61"/>
       <c r="AP6" s="61"/>
       <c r="AQ6" s="61"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="61"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="61"/>
-      <c r="AX6" s="61"/>
-      <c r="AY6" s="61"/>
-      <c r="AZ6" s="61"/>
-      <c r="BA6" s="61"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="61"/>
-      <c r="BD6" s="61"/>
-      <c r="BE6" s="61"/>
-      <c r="BF6" s="61"/>
-      <c r="BG6" s="61"/>
-      <c r="BH6" s="61"/>
-      <c r="BI6" s="61"/>
-      <c r="BJ6" s="61"/>
-    </row>
-    <row r="7" spans="1:62" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
-        <v>27</v>
+    </row>
+    <row r="7" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="142" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
+      <c r="F7" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
       <c r="O7" s="61"/>
       <c r="P7" s="61"/>
       <c r="Q7" s="61"/>
@@ -9050,12 +11737,14 @@
       <c r="W7" s="61"/>
       <c r="X7" s="61"/>
       <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
+      <c r="Z7" s="135" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="135"/>
+      <c r="AE7" s="135"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="61"/>
       <c r="AH7" s="61"/>
@@ -9068,52 +11757,37 @@
       <c r="AO7" s="61"/>
       <c r="AP7" s="61"/>
       <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
-    </row>
-    <row r="8" spans="1:62" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
-        <v>26</v>
+    </row>
+    <row r="8" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="142" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
+      <c r="F8" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
       <c r="M8" s="61"/>
       <c r="N8" s="61"/>
       <c r="O8" s="61"/>
       <c r="P8" s="61"/>
       <c r="Q8" s="61"/>
       <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
+      <c r="S8" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
       <c r="X8" s="61"/>
       <c r="Y8" s="61"/>
       <c r="Z8" s="61"/>
@@ -9122,10 +11796,12 @@
       <c r="AC8" s="61"/>
       <c r="AD8" s="61"/>
       <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
+      <c r="AF8" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG8" s="135"/>
+      <c r="AH8" s="135"/>
+      <c r="AI8" s="135"/>
       <c r="AJ8" s="61"/>
       <c r="AK8" s="61"/>
       <c r="AL8" s="61"/>
@@ -9134,37 +11810,316 @@
       <c r="AO8" s="61"/>
       <c r="AP8" s="61"/>
       <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="61"/>
-      <c r="AU8" s="61"/>
-      <c r="AV8" s="61"/>
-      <c r="AW8" s="61"/>
-      <c r="AX8" s="61"/>
-      <c r="AY8" s="61"/>
-      <c r="AZ8" s="61"/>
-      <c r="BA8" s="61"/>
-      <c r="BB8" s="61"/>
-      <c r="BC8" s="61"/>
-      <c r="BD8" s="61"/>
-      <c r="BE8" s="61"/>
-      <c r="BF8" s="61"/>
-      <c r="BG8" s="61"/>
-      <c r="BH8" s="61"/>
-      <c r="BI8" s="61"/>
-      <c r="BJ8" s="61"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="G16" s="141"/>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:AQ1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="Z7:AE7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E2F9A4-A55B-4B24-B502-11C36FEEAA9B}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="A1:P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+    </row>
+    <row r="2" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+    </row>
+    <row r="3" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="143" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="143" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="143" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="143" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="143" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="143" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="143" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="145">
+        <v>4</v>
+      </c>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145">
+        <v>7</v>
+      </c>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145">
+        <v>7</v>
+      </c>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="147">
+        <f>7+7+4</f>
+        <v>18</v>
+      </c>
+      <c r="O4" s="150">
+        <v>2000</v>
+      </c>
+      <c r="P4" s="150">
+        <f>N4*O4</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145">
+        <v>7</v>
+      </c>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145">
+        <v>7</v>
+      </c>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="145">
+        <v>3</v>
+      </c>
+      <c r="N5" s="147">
+        <f>7+7+3</f>
+        <v>17</v>
+      </c>
+      <c r="O5" s="150">
+        <v>1800</v>
+      </c>
+      <c r="P5" s="150">
+        <f t="shared" ref="P5:P7" si="0">N5*O5</f>
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="144"/>
+      <c r="C6" s="145">
+        <v>4</v>
+      </c>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="145">
+        <v>6</v>
+      </c>
+      <c r="H6" s="146"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145">
+        <v>6</v>
+      </c>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="147">
+        <f>4+6+6</f>
+        <v>16</v>
+      </c>
+      <c r="O6" s="150">
+        <v>1850.05</v>
+      </c>
+      <c r="P6" s="150">
+        <f t="shared" si="0"/>
+        <v>29600.799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="145">
+        <v>7</v>
+      </c>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145">
+        <v>5</v>
+      </c>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="145">
+        <v>4</v>
+      </c>
+      <c r="M7" s="144"/>
+      <c r="N7" s="147">
+        <f>7+5+4</f>
+        <v>16</v>
+      </c>
+      <c r="O7" s="150">
+        <v>1800</v>
+      </c>
+      <c r="P7" s="150">
+        <f t="shared" si="0"/>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="149">
+        <f>P4+P5+P6+P7</f>
+        <v>125000.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A1:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B011FE-B0A5-47C4-813A-87DB315F5922}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9174,52 +12129,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -9227,7 +12182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C22"/>
   <sheetViews>
@@ -9245,19 +12200,19 @@
     </row>
     <row r="2" spans="2:3" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="48"/>
     </row>
     <row r="3" spans="2:3" s="51" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="50"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -9265,12 +12220,12 @@
     </row>
     <row r="6" spans="2:3" s="52" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B6" s="55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B7" s="56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.2">
@@ -9278,17 +12233,17 @@
     </row>
     <row r="9" spans="2:3" s="52" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B9" s="55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B10" s="56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.2">
@@ -9305,17 +12260,17 @@
     </row>
     <row r="15" spans="2:3" s="52" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B15" s="55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B16" s="56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="57" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.2">
@@ -9323,12 +12278,12 @@
     </row>
     <row r="19" spans="2:2" s="52" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B19" s="55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="60" x14ac:dyDescent="0.2">
       <c r="B20" s="56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
@@ -9336,7 +12291,7 @@
     </row>
     <row r="22" spans="2:2" ht="75" x14ac:dyDescent="0.2">
       <c r="B22" s="56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
